--- a/data-raw/db_sports.xlsx
+++ b/data-raw/db_sports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\sports-predict\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FDA50ED8-0DF4-4DE3-A10C-AF788DC4002F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00B2EED-6AA9-4806-BB18-868957F4FC26}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="2" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_tm" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="188">
   <si>
     <t>game_result_id</t>
   </si>
@@ -569,6 +569,33 @@
   </si>
   <si>
     <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>tm_espn</t>
+  </si>
+  <si>
+    <t>tm_name_full_espn</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>WSH</t>
   </si>
 </sst>
 </file>
@@ -920,15 +947,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3ECA7-9A25-40A8-9453-2E882EECF8B1}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -942,10 +967,16 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -958,11 +989,17 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -975,11 +1012,17 @@
       <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -992,11 +1035,17 @@
       <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1009,11 +1058,17 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1026,11 +1081,17 @@
       <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1043,11 +1104,17 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1060,11 +1127,17 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1077,11 +1150,17 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1094,11 +1173,17 @@
       <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1111,11 +1196,17 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1128,11 +1219,17 @@
       <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1145,11 +1242,17 @@
       <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1162,11 +1265,17 @@
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1179,11 +1288,17 @@
       <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1196,11 +1311,17 @@
       <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1213,11 +1334,17 @@
       <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1230,11 +1357,17 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1247,11 +1380,17 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1264,11 +1403,17 @@
       <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1281,11 +1426,17 @@
       <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1298,11 +1449,17 @@
       <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1315,11 +1472,17 @@
       <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1332,11 +1495,17 @@
       <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1349,11 +1518,17 @@
       <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1366,11 +1541,17 @@
       <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1383,11 +1564,17 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1400,11 +1587,17 @@
       <c r="D28" t="s">
         <v>97</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1417,11 +1610,17 @@
       <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1434,11 +1633,17 @@
       <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1451,11 +1656,17 @@
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1468,11 +1679,17 @@
       <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1485,11 +1702,17 @@
       <c r="D33" t="s">
         <v>107</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1502,11 +1725,17 @@
       <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1519,11 +1748,17 @@
       <c r="D35" t="s">
         <v>77</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1536,12 +1771,19 @@
       <c r="D36" t="s">
         <v>77</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7474,7 +7716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82951E60-D9EA-43AF-9BFF-AA007F42F14F}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/db_sports.xlsx
+++ b/data-raw/db_sports.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\sports-predict\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00B2EED-6AA9-4806-BB18-868957F4FC26}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C444BBED-BF14-4754-81FA-160AFE5176EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
+    <workbookView xWindow="3375" yWindow="1275" windowWidth="25425" windowHeight="14925" tabRatio="730" activeTab="1" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_tm" sheetId="2" r:id="rId1"/>
     <sheet name="nfl_game_result" sheetId="1" r:id="rId2"/>
     <sheet name="nba_tm" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nfl_game_result!$A$1:$G$257</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -949,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3ECA7-9A25-40A8-9453-2E882EECF8B1}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1791,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E0B7D-391B-47A1-BFA0-908005119D46}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1820,13 +1823,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1603</v>
+        <v>1859</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1835,21 +1838,21 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1604</v>
+        <v>1860</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1858,21 +1861,21 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1605</v>
+        <v>1862</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1881,21 +1884,21 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1606</v>
+        <v>1863</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1904,21 +1907,21 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1607</v>
+        <v>1864</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1930,18 +1933,18 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1608</v>
+        <v>1865</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1950,21 +1953,21 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1609</v>
+        <v>1866</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1973,21 +1976,21 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1610</v>
+        <v>1867</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1996,21 +1999,21 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1611</v>
+        <v>1868</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2019,21 +2022,21 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1612</v>
+        <v>1869</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2045,18 +2048,18 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1613</v>
+        <v>1870</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2065,21 +2068,21 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1614</v>
+        <v>1871</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2088,21 +2091,21 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1615</v>
+        <v>1872</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2111,21 +2114,21 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1616</v>
+        <v>1873</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2134,21 +2137,21 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1617</v>
+        <v>1874</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2157,21 +2160,21 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1618</v>
+        <v>1875</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2183,18 +2186,18 @@
         <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1619</v>
+        <v>1876</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2203,21 +2206,21 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1620</v>
+        <v>1877</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2226,21 +2229,21 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1621</v>
+        <v>1878</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2249,21 +2252,21 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1622</v>
+        <v>1879</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2272,21 +2275,21 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1623</v>
+        <v>1880</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2295,21 +2298,21 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1624</v>
+        <v>1881</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2318,21 +2321,21 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1625</v>
+        <v>1882</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2341,21 +2344,21 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1626</v>
+        <v>1883</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2364,21 +2367,21 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1627</v>
+        <v>1884</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2387,21 +2390,21 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1628</v>
+        <v>1885</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2410,21 +2413,21 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1629</v>
+        <v>1886</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2433,21 +2436,21 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1630</v>
+        <v>1887</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2456,21 +2459,21 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1631</v>
+        <v>1888</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2479,21 +2482,21 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1632</v>
+        <v>1889</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2502,21 +2505,21 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1633</v>
+        <v>1890</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2525,21 +2528,21 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1634</v>
+        <v>1891</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2548,21 +2551,21 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1635</v>
+        <v>1892</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2571,21 +2574,21 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1636</v>
+        <v>1893</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2594,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2602,13 +2605,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1637</v>
+        <v>1894</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2617,21 +2620,21 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1638</v>
+        <v>1895</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2640,21 +2643,21 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1639</v>
+        <v>1896</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2663,21 +2666,21 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1640</v>
+        <v>1897</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2686,21 +2689,21 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1641</v>
+        <v>1898</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2709,21 +2712,21 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1642</v>
+        <v>1899</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2732,21 +2735,21 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1643</v>
+        <v>1900</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2755,21 +2758,21 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1644</v>
+        <v>1901</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2778,21 +2781,21 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1645</v>
+        <v>1902</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2801,21 +2804,21 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1646</v>
+        <v>1903</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2824,21 +2827,21 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1647</v>
+        <v>1904</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2847,21 +2850,21 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1648</v>
+        <v>1905</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2873,18 +2876,18 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1649</v>
+        <v>1906</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2893,21 +2896,21 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1650</v>
+        <v>1907</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2916,21 +2919,21 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1651</v>
+        <v>1908</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -2939,21 +2942,21 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1652</v>
+        <v>1909</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -2962,21 +2965,21 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1653</v>
+        <v>1910</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -2985,21 +2988,21 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1654</v>
+        <v>1911</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3008,21 +3011,21 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1655</v>
+        <v>1912</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -3031,21 +3034,21 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1656</v>
+        <v>1913</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -3054,21 +3057,21 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1657</v>
+        <v>1914</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -3077,21 +3080,21 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1658</v>
+        <v>1915</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -3100,21 +3103,21 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1659</v>
+        <v>1916</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -3123,21 +3126,21 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
         <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1660</v>
+        <v>1917</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -3146,21 +3149,21 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1661</v>
+        <v>1918</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -3169,21 +3172,21 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1662</v>
+        <v>1919</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -3192,21 +3195,21 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1663</v>
+        <v>1920</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -3215,21 +3218,21 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1664</v>
+        <v>1921</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -3238,21 +3241,21 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1665</v>
+        <v>1922</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3261,21 +3264,21 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1666</v>
+        <v>1923</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -3284,21 +3287,21 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1667</v>
+        <v>1924</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -3310,18 +3313,18 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1668</v>
+        <v>1925</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -3330,21 +3333,21 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1669</v>
+        <v>1926</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -3353,21 +3356,21 @@
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1670</v>
+        <v>1927</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -3376,21 +3379,21 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1671</v>
+        <v>1928</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -3399,21 +3402,21 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1672</v>
+        <v>1929</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -3422,21 +3425,21 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1673</v>
+        <v>1930</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -3445,21 +3448,21 @@
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1674</v>
+        <v>1931</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -3468,21 +3471,21 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1675</v>
+        <v>1932</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -3491,21 +3494,21 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1676</v>
+        <v>1933</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -3514,21 +3517,21 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1677</v>
+        <v>1934</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -3537,21 +3540,21 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1678</v>
+        <v>1935</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -3560,21 +3563,21 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1679</v>
+        <v>1936</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -3583,21 +3586,21 @@
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1680</v>
+        <v>1937</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -3606,21 +3609,21 @@
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1681</v>
+        <v>1938</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -3629,21 +3632,21 @@
         <v>6</v>
       </c>
       <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
         <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1682</v>
+        <v>1939</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -3652,21 +3655,21 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1683</v>
+        <v>1940</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -3675,21 +3678,21 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1684</v>
+        <v>1941</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -3698,21 +3701,21 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1685</v>
+        <v>1942</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -3721,21 +3724,21 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1686</v>
+        <v>1943</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -3744,21 +3747,21 @@
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1687</v>
+        <v>1944</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -3767,21 +3770,21 @@
         <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1688</v>
+        <v>1945</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -3790,21 +3793,21 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1689</v>
+        <v>1946</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -3813,21 +3816,21 @@
         <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1690</v>
+        <v>1947</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -3836,21 +3839,21 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1691</v>
+        <v>1948</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -3859,21 +3862,21 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1692</v>
+        <v>1949</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -3882,21 +3885,21 @@
         <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1693</v>
+        <v>1950</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -3905,21 +3908,21 @@
         <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1694</v>
+        <v>1951</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -3928,44 +3931,44 @@
         <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1695</v>
+        <v>1952</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1696</v>
+        <v>1953</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -3974,21 +3977,21 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1697</v>
+        <v>1954</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -3997,21 +4000,21 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1698</v>
+        <v>1955</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -4020,21 +4023,21 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
         <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1699</v>
+        <v>1956</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D98">
         <v>7</v>
@@ -4043,21 +4046,21 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1700</v>
+        <v>1957</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D99">
         <v>7</v>
@@ -4066,21 +4069,21 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1701</v>
+        <v>1958</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D100">
         <v>7</v>
@@ -4089,21 +4092,21 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1702</v>
+        <v>1959</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D101">
         <v>7</v>
@@ -4112,21 +4115,21 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1703</v>
+        <v>1960</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D102">
         <v>7</v>
@@ -4135,21 +4138,21 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1704</v>
+        <v>1961</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D103">
         <v>7</v>
@@ -4158,21 +4161,21 @@
         <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1705</v>
+        <v>1962</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -4181,21 +4184,21 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1706</v>
+        <v>1963</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D105">
         <v>7</v>
@@ -4204,21 +4207,21 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s">
         <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1707</v>
+        <v>1964</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D106">
         <v>7</v>
@@ -4227,21 +4230,21 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1708</v>
+        <v>1965</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D107">
         <v>7</v>
@@ -4250,44 +4253,44 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1709</v>
+        <v>1966</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1710</v>
+        <v>1967</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -4296,21 +4299,21 @@
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1711</v>
+        <v>1968</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -4319,21 +4322,21 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1712</v>
+        <v>1969</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -4342,21 +4345,21 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1713</v>
+        <v>1970</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -4365,21 +4368,21 @@
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1714</v>
+        <v>1971</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -4388,21 +4391,21 @@
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1715</v>
+        <v>1972</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -4411,21 +4414,21 @@
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1716</v>
+        <v>1973</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -4434,21 +4437,21 @@
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1717</v>
+        <v>1974</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -4460,18 +4463,18 @@
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1718</v>
+        <v>1975</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -4480,21 +4483,21 @@
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1719</v>
+        <v>1976</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -4503,21 +4506,21 @@
         <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1720</v>
+        <v>1977</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -4526,21 +4529,21 @@
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1721</v>
+        <v>1978</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -4549,21 +4552,21 @@
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1722</v>
+        <v>1979</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -4572,21 +4575,21 @@
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G121" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1723</v>
+        <v>1980</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -4595,21 +4598,21 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1724</v>
+        <v>1981</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D123">
         <v>9</v>
@@ -4618,21 +4621,21 @@
         <v>9</v>
       </c>
       <c r="F123" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s">
         <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1725</v>
+        <v>1982</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D124">
         <v>9</v>
@@ -4641,21 +4644,21 @@
         <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1726</v>
+        <v>1983</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D125">
         <v>9</v>
@@ -4667,18 +4670,18 @@
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1727</v>
+        <v>1984</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D126">
         <v>9</v>
@@ -4690,18 +4693,18 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1728</v>
+        <v>1985</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D127">
         <v>9</v>
@@ -4710,21 +4713,21 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G127" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1729</v>
+        <v>1986</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D128">
         <v>9</v>
@@ -4741,13 +4744,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1730</v>
+        <v>1987</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D129">
         <v>9</v>
@@ -4756,21 +4759,21 @@
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1731</v>
+        <v>1988</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -4779,21 +4782,21 @@
         <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1732</v>
+        <v>1989</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D131">
         <v>9</v>
@@ -4802,21 +4805,21 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1733</v>
+        <v>1990</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D132">
         <v>9</v>
@@ -4825,21 +4828,21 @@
         <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1734</v>
+        <v>1991</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="C133">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -4848,21 +4851,21 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1735</v>
+        <v>1992</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D134">
         <v>9</v>
@@ -4871,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G134" t="s">
         <v>33</v>
@@ -4879,13 +4882,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1736</v>
+        <v>1993</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D135">
         <v>9</v>
@@ -4894,44 +4897,44 @@
         <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1737</v>
+        <v>1994</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1738</v>
+        <v>1995</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D137">
         <v>10</v>
@@ -4940,21 +4943,21 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1739</v>
+        <v>1996</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D138">
         <v>10</v>
@@ -4966,18 +4969,18 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1740</v>
+        <v>1997</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D139">
         <v>10</v>
@@ -4994,13 +4997,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1741</v>
+        <v>1998</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
       <c r="C140">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D140">
         <v>10</v>
@@ -5009,21 +5012,21 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1742</v>
+        <v>1999</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
       <c r="C141">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D141">
         <v>10</v>
@@ -5035,18 +5038,18 @@
         <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1743</v>
+        <v>2000</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D142">
         <v>10</v>
@@ -5058,18 +5061,18 @@
         <v>24</v>
       </c>
       <c r="G142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1744</v>
+        <v>2001</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D143">
         <v>10</v>
@@ -5081,18 +5084,18 @@
         <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1745</v>
+        <v>2002</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D144">
         <v>10</v>
@@ -5101,21 +5104,21 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G144" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1746</v>
+        <v>2003</v>
       </c>
       <c r="B145">
         <v>2</v>
       </c>
       <c r="C145">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D145">
         <v>10</v>
@@ -5124,21 +5127,21 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1747</v>
+        <v>2004</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
       <c r="C146">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D146">
         <v>10</v>
@@ -5147,21 +5150,21 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1748</v>
+        <v>2005</v>
       </c>
       <c r="B147">
         <v>2</v>
       </c>
       <c r="C147">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D147">
         <v>10</v>
@@ -5170,21 +5173,21 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
         <v>38</v>
-      </c>
-      <c r="G147" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1749</v>
+        <v>2006</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D148">
         <v>10</v>
@@ -5193,21 +5196,21 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1750</v>
+        <v>2007</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D149">
         <v>10</v>
@@ -5219,18 +5222,18 @@
         <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1751</v>
+        <v>2008</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D150">
         <v>11</v>
@@ -5239,21 +5242,21 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1752</v>
+        <v>2009</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D151">
         <v>11</v>
@@ -5262,21 +5265,21 @@
         <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1753</v>
+        <v>2010</v>
       </c>
       <c r="B152">
         <v>2</v>
       </c>
       <c r="C152">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D152">
         <v>11</v>
@@ -5285,21 +5288,21 @@
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1754</v>
+        <v>2011</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
       <c r="C153">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D153">
         <v>11</v>
@@ -5308,21 +5311,21 @@
         <v>11</v>
       </c>
       <c r="F153" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s">
         <v>8</v>
-      </c>
-      <c r="G153" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1755</v>
+        <v>2012</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
       <c r="C154">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D154">
         <v>11</v>
@@ -5331,21 +5334,21 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1756</v>
+        <v>2013</v>
       </c>
       <c r="B155">
         <v>2</v>
       </c>
       <c r="C155">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D155">
         <v>11</v>
@@ -5354,21 +5357,21 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1757</v>
+        <v>2014</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D156">
         <v>11</v>
@@ -5380,18 +5383,18 @@
         <v>28</v>
       </c>
       <c r="G156" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1758</v>
+        <v>2015</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D157">
         <v>11</v>
@@ -5400,21 +5403,21 @@
         <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1759</v>
+        <v>2016</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D158">
         <v>11</v>
@@ -5423,21 +5426,21 @@
         <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1760</v>
+        <v>2017</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D159">
         <v>11</v>
@@ -5446,21 +5449,21 @@
         <v>11</v>
       </c>
       <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
         <v>27</v>
-      </c>
-      <c r="G159" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1761</v>
+        <v>2018</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
       <c r="C160">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D160">
         <v>11</v>
@@ -5469,21 +5472,21 @@
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1762</v>
+        <v>2019</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D161">
         <v>11</v>
@@ -5492,21 +5495,21 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1763</v>
+        <v>2020</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
       <c r="C162">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162">
         <v>11</v>
@@ -5518,41 +5521,41 @@
         <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1764</v>
+        <v>2021</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="C163">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1765</v>
+        <v>2022</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D164">
         <v>12</v>
@@ -5561,21 +5564,21 @@
         <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1766</v>
+        <v>2023</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D165">
         <v>12</v>
@@ -5584,21 +5587,21 @@
         <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1767</v>
+        <v>2024</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D166">
         <v>12</v>
@@ -5607,7 +5610,7 @@
         <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>21</v>
@@ -5615,13 +5618,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1768</v>
+        <v>2025</v>
       </c>
       <c r="B167">
         <v>2</v>
       </c>
       <c r="C167">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D167">
         <v>12</v>
@@ -5630,21 +5633,21 @@
         <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1769</v>
+        <v>2026</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D168">
         <v>12</v>
@@ -5653,21 +5656,21 @@
         <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1770</v>
+        <v>2027</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="C169">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D169">
         <v>12</v>
@@ -5676,21 +5679,21 @@
         <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1771</v>
+        <v>2028</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D170">
         <v>12</v>
@@ -5699,21 +5702,21 @@
         <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1772</v>
+        <v>2029</v>
       </c>
       <c r="B171">
         <v>2</v>
       </c>
       <c r="C171">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D171">
         <v>12</v>
@@ -5722,21 +5725,21 @@
         <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1773</v>
+        <v>2030</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
       <c r="C172">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D172">
         <v>12</v>
@@ -5745,21 +5748,21 @@
         <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G172" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1774</v>
+        <v>2031</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D173">
         <v>12</v>
@@ -5768,21 +5771,21 @@
         <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1775</v>
+        <v>2032</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
       <c r="C174">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D174">
         <v>12</v>
@@ -5791,21 +5794,21 @@
         <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G174" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1776</v>
+        <v>2033</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D175">
         <v>12</v>
@@ -5814,21 +5817,21 @@
         <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1777</v>
+        <v>2034</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
       <c r="C176">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D176">
         <v>12</v>
@@ -5837,21 +5840,21 @@
         <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1778</v>
+        <v>2035</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
       <c r="C177">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D177">
         <v>12</v>
@@ -5860,21 +5863,21 @@
         <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1779</v>
+        <v>2036</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
       <c r="C178">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D178">
         <v>13</v>
@@ -5883,21 +5886,21 @@
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1780</v>
+        <v>2037</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="C179">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D179">
         <v>13</v>
@@ -5906,21 +5909,21 @@
         <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1781</v>
+        <v>2038</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D180">
         <v>13</v>
@@ -5929,21 +5932,21 @@
         <v>13</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1782</v>
+        <v>2039</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
       <c r="C181">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D181">
         <v>13</v>
@@ -5952,21 +5955,21 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1783</v>
+        <v>2040</v>
       </c>
       <c r="B182">
         <v>2</v>
       </c>
       <c r="C182">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D182">
         <v>13</v>
@@ -5975,21 +5978,21 @@
         <v>13</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1784</v>
+        <v>2041</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="C183">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D183">
         <v>13</v>
@@ -5998,21 +6001,21 @@
         <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1785</v>
+        <v>2042</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D184">
         <v>13</v>
@@ -6021,21 +6024,21 @@
         <v>13</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1786</v>
+        <v>2043</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="C185">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D185">
         <v>13</v>
@@ -6044,21 +6047,21 @@
         <v>13</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1787</v>
+        <v>2044</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D186">
         <v>13</v>
@@ -6067,21 +6070,21 @@
         <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G186" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1788</v>
+        <v>2045</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D187">
         <v>13</v>
@@ -6090,21 +6093,21 @@
         <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1789</v>
+        <v>2046</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D188">
         <v>13</v>
@@ -6113,21 +6116,21 @@
         <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1790</v>
+        <v>2047</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="C189">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D189">
         <v>13</v>
@@ -6136,21 +6139,21 @@
         <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1791</v>
+        <v>2048</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
       <c r="C190">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D190">
         <v>13</v>
@@ -6159,21 +6162,21 @@
         <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1792</v>
+        <v>2049</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
       <c r="C191">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D191">
         <v>13</v>
@@ -6182,21 +6185,21 @@
         <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1793</v>
+        <v>2050</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
       <c r="C192">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D192">
         <v>13</v>
@@ -6205,21 +6208,21 @@
         <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1794</v>
+        <v>2051</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
       <c r="C193">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D193">
         <v>13</v>
@@ -6228,21 +6231,21 @@
         <v>13</v>
       </c>
       <c r="F193" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1795</v>
+        <v>2052</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D194">
         <v>14</v>
@@ -6251,21 +6254,21 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1796</v>
+        <v>2053</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="C195">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D195">
         <v>14</v>
@@ -6274,21 +6277,21 @@
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1797</v>
+        <v>2054</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
       <c r="C196">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D196">
         <v>14</v>
@@ -6297,21 +6300,21 @@
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1798</v>
+        <v>2055</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
       <c r="C197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D197">
         <v>14</v>
@@ -6320,21 +6323,21 @@
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1799</v>
+        <v>2056</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
       <c r="C198">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D198">
         <v>14</v>
@@ -6343,21 +6346,21 @@
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1800</v>
+        <v>2057</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
       <c r="C199">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D199">
         <v>14</v>
@@ -6366,21 +6369,21 @@
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1801</v>
+        <v>2058</v>
       </c>
       <c r="B200">
         <v>2</v>
       </c>
       <c r="C200">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D200">
         <v>14</v>
@@ -6389,21 +6392,21 @@
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G200" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1802</v>
+        <v>2059</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D201">
         <v>14</v>
@@ -6412,21 +6415,21 @@
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1803</v>
+        <v>2060</v>
       </c>
       <c r="B202">
         <v>2</v>
       </c>
       <c r="C202">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D202">
         <v>14</v>
@@ -6435,21 +6438,21 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1804</v>
+        <v>2061</v>
       </c>
       <c r="B203">
         <v>2</v>
       </c>
       <c r="C203">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D203">
         <v>14</v>
@@ -6458,21 +6461,21 @@
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1805</v>
+        <v>2062</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
       <c r="C204">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D204">
         <v>14</v>
@@ -6481,21 +6484,21 @@
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1806</v>
+        <v>2063</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
       <c r="C205">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D205">
         <v>14</v>
@@ -6504,21 +6507,21 @@
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1807</v>
+        <v>2064</v>
       </c>
       <c r="B206">
         <v>2</v>
       </c>
       <c r="C206">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D206">
         <v>14</v>
@@ -6527,21 +6530,21 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1808</v>
+        <v>2065</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
       <c r="C207">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D207">
         <v>14</v>
@@ -6550,21 +6553,21 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G207" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1809</v>
+        <v>2066</v>
       </c>
       <c r="B208">
         <v>2</v>
       </c>
       <c r="C208">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D208">
         <v>14</v>
@@ -6573,21 +6576,21 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1810</v>
+        <v>2067</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
       <c r="C209">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D209">
         <v>14</v>
@@ -6596,21 +6599,21 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1811</v>
+        <v>2068</v>
       </c>
       <c r="B210">
         <v>2</v>
       </c>
       <c r="C210">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D210">
         <v>15</v>
@@ -6619,21 +6622,21 @@
         <v>15</v>
       </c>
       <c r="F210" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1812</v>
+        <v>2069</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
       <c r="C211">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D211">
         <v>15</v>
@@ -6642,21 +6645,21 @@
         <v>15</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1813</v>
+        <v>2070</v>
       </c>
       <c r="B212">
         <v>2</v>
       </c>
       <c r="C212">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D212">
         <v>15</v>
@@ -6665,21 +6668,21 @@
         <v>15</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G212" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1814</v>
+        <v>2071</v>
       </c>
       <c r="B213">
         <v>2</v>
       </c>
       <c r="C213">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D213">
         <v>15</v>
@@ -6688,21 +6691,21 @@
         <v>15</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1815</v>
+        <v>2072</v>
       </c>
       <c r="B214">
         <v>2</v>
       </c>
       <c r="C214">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D214">
         <v>15</v>
@@ -6711,21 +6714,21 @@
         <v>15</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1816</v>
+        <v>2073</v>
       </c>
       <c r="B215">
         <v>2</v>
       </c>
       <c r="C215">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D215">
         <v>15</v>
@@ -6734,21 +6737,21 @@
         <v>15</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1817</v>
+        <v>2074</v>
       </c>
       <c r="B216">
         <v>2</v>
       </c>
       <c r="C216">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D216">
         <v>15</v>
@@ -6757,21 +6760,21 @@
         <v>15</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G216" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1818</v>
+        <v>2075</v>
       </c>
       <c r="B217">
         <v>2</v>
       </c>
       <c r="C217">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D217">
         <v>15</v>
@@ -6780,21 +6783,21 @@
         <v>15</v>
       </c>
       <c r="F217" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1819</v>
+        <v>2076</v>
       </c>
       <c r="B218">
         <v>2</v>
       </c>
       <c r="C218">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D218">
         <v>15</v>
@@ -6803,21 +6806,21 @@
         <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1820</v>
+        <v>2077</v>
       </c>
       <c r="B219">
         <v>2</v>
       </c>
       <c r="C219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D219">
         <v>15</v>
@@ -6826,21 +6829,21 @@
         <v>15</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1821</v>
+        <v>2078</v>
       </c>
       <c r="B220">
         <v>2</v>
       </c>
       <c r="C220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D220">
         <v>15</v>
@@ -6849,21 +6852,21 @@
         <v>15</v>
       </c>
       <c r="F220" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1822</v>
+        <v>2079</v>
       </c>
       <c r="B221">
         <v>2</v>
       </c>
       <c r="C221">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D221">
         <v>15</v>
@@ -6872,21 +6875,21 @@
         <v>15</v>
       </c>
       <c r="F221" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G221" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1823</v>
+        <v>2080</v>
       </c>
       <c r="B222">
         <v>2</v>
       </c>
       <c r="C222">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D222">
         <v>15</v>
@@ -6898,18 +6901,18 @@
         <v>16</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1824</v>
+        <v>2081</v>
       </c>
       <c r="B223">
         <v>2</v>
       </c>
       <c r="C223">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D223">
         <v>15</v>
@@ -6918,21 +6921,21 @@
         <v>15</v>
       </c>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1825</v>
+        <v>2082</v>
       </c>
       <c r="B224">
         <v>2</v>
       </c>
       <c r="C224">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D224">
         <v>15</v>
@@ -6941,21 +6944,21 @@
         <v>15</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G224" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1826</v>
+        <v>2083</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
       <c r="C225">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D225">
         <v>15</v>
@@ -6964,21 +6967,21 @@
         <v>15</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G225" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1827</v>
+        <v>2084</v>
       </c>
       <c r="B226">
         <v>2</v>
       </c>
       <c r="C226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D226">
         <v>16</v>
@@ -6987,21 +6990,21 @@
         <v>16</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G226" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1828</v>
+        <v>2085</v>
       </c>
       <c r="B227">
         <v>2</v>
       </c>
       <c r="C227">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D227">
         <v>16</v>
@@ -7010,21 +7013,21 @@
         <v>16</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G227" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1829</v>
+        <v>2086</v>
       </c>
       <c r="B228">
         <v>2</v>
       </c>
       <c r="C228">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D228">
         <v>16</v>
@@ -7033,21 +7036,21 @@
         <v>16</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1830</v>
+        <v>2087</v>
       </c>
       <c r="B229">
         <v>2</v>
       </c>
       <c r="C229">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D229">
         <v>16</v>
@@ -7056,21 +7059,21 @@
         <v>16</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1831</v>
+        <v>2088</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
       <c r="C230">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D230">
         <v>16</v>
@@ -7079,21 +7082,21 @@
         <v>16</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1832</v>
+        <v>2089</v>
       </c>
       <c r="B231">
         <v>2</v>
       </c>
       <c r="C231">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D231">
         <v>16</v>
@@ -7102,21 +7105,21 @@
         <v>16</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1833</v>
+        <v>2090</v>
       </c>
       <c r="B232">
         <v>2</v>
       </c>
       <c r="C232">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D232">
         <v>16</v>
@@ -7128,18 +7131,18 @@
         <v>13</v>
       </c>
       <c r="G232" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1834</v>
+        <v>2091</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
       <c r="C233">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D233">
         <v>16</v>
@@ -7148,21 +7151,21 @@
         <v>16</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1835</v>
+        <v>2092</v>
       </c>
       <c r="B234">
         <v>2</v>
       </c>
       <c r="C234">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D234">
         <v>16</v>
@@ -7171,21 +7174,21 @@
         <v>16</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G234" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1836</v>
+        <v>2093</v>
       </c>
       <c r="B235">
         <v>2</v>
       </c>
       <c r="C235">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D235">
         <v>16</v>
@@ -7197,18 +7200,18 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1837</v>
+        <v>2094</v>
       </c>
       <c r="B236">
         <v>2</v>
       </c>
       <c r="C236">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D236">
         <v>16</v>
@@ -7217,21 +7220,21 @@
         <v>16</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1838</v>
+        <v>2095</v>
       </c>
       <c r="B237">
         <v>2</v>
       </c>
       <c r="C237">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D237">
         <v>16</v>
@@ -7240,21 +7243,21 @@
         <v>16</v>
       </c>
       <c r="F237" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1839</v>
+        <v>2096</v>
       </c>
       <c r="B238">
         <v>2</v>
       </c>
       <c r="C238">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D238">
         <v>16</v>
@@ -7263,21 +7266,21 @@
         <v>16</v>
       </c>
       <c r="F238" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G238" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1840</v>
+        <v>2097</v>
       </c>
       <c r="B239">
         <v>2</v>
       </c>
       <c r="C239">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D239">
         <v>16</v>
@@ -7286,21 +7289,21 @@
         <v>16</v>
       </c>
       <c r="F239" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1841</v>
+        <v>2098</v>
       </c>
       <c r="B240">
         <v>2</v>
       </c>
       <c r="C240">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D240">
         <v>16</v>
@@ -7309,7 +7312,7 @@
         <v>16</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
         <v>26</v>
@@ -7317,13 +7320,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1842</v>
+        <v>2099</v>
       </c>
       <c r="B241">
         <v>2</v>
       </c>
       <c r="C241">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D241">
         <v>16</v>
@@ -7332,21 +7335,21 @@
         <v>16</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G241" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1843</v>
+        <v>2100</v>
       </c>
       <c r="B242">
         <v>2</v>
       </c>
       <c r="C242">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D242">
         <v>17</v>
@@ -7355,21 +7358,21 @@
         <v>17</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1844</v>
+        <v>2101</v>
       </c>
       <c r="B243">
         <v>2</v>
       </c>
       <c r="C243">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D243">
         <v>17</v>
@@ -7378,21 +7381,21 @@
         <v>17</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1845</v>
+        <v>2102</v>
       </c>
       <c r="B244">
         <v>2</v>
       </c>
       <c r="C244">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D244">
         <v>17</v>
@@ -7401,21 +7404,21 @@
         <v>17</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1846</v>
+        <v>2103</v>
       </c>
       <c r="B245">
         <v>2</v>
       </c>
       <c r="C245">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D245">
         <v>17</v>
@@ -7424,21 +7427,21 @@
         <v>17</v>
       </c>
       <c r="F245" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1847</v>
+        <v>2104</v>
       </c>
       <c r="B246">
         <v>2</v>
       </c>
       <c r="C246">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D246">
         <v>17</v>
@@ -7447,21 +7450,21 @@
         <v>17</v>
       </c>
       <c r="F246" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1848</v>
+        <v>2105</v>
       </c>
       <c r="B247">
         <v>2</v>
       </c>
       <c r="C247">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D247">
         <v>17</v>
@@ -7470,21 +7473,21 @@
         <v>17</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1849</v>
+        <v>2106</v>
       </c>
       <c r="B248">
         <v>2</v>
       </c>
       <c r="C248">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D248">
         <v>17</v>
@@ -7493,21 +7496,21 @@
         <v>17</v>
       </c>
       <c r="F248" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1850</v>
+        <v>2107</v>
       </c>
       <c r="B249">
         <v>2</v>
       </c>
       <c r="C249">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D249">
         <v>17</v>
@@ -7516,21 +7519,21 @@
         <v>17</v>
       </c>
       <c r="F249" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1851</v>
+        <v>2108</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
       <c r="C250">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D250">
         <v>17</v>
@@ -7539,21 +7542,21 @@
         <v>17</v>
       </c>
       <c r="F250" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G250" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1852</v>
+        <v>2109</v>
       </c>
       <c r="B251">
         <v>2</v>
       </c>
       <c r="C251">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D251">
         <v>17</v>
@@ -7570,13 +7573,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1853</v>
+        <v>2110</v>
       </c>
       <c r="B252">
         <v>2</v>
       </c>
       <c r="C252">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D252">
         <v>17</v>
@@ -7585,21 +7588,21 @@
         <v>17</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1854</v>
+        <v>2111</v>
       </c>
       <c r="B253">
         <v>2</v>
       </c>
       <c r="C253">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D253">
         <v>17</v>
@@ -7608,21 +7611,21 @@
         <v>17</v>
       </c>
       <c r="F253" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G253" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1855</v>
+        <v>2112</v>
       </c>
       <c r="B254">
         <v>2</v>
       </c>
       <c r="C254">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D254">
         <v>17</v>
@@ -7631,21 +7634,21 @@
         <v>17</v>
       </c>
       <c r="F254" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1856</v>
+        <v>2113</v>
       </c>
       <c r="B255">
         <v>2</v>
       </c>
       <c r="C255">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D255">
         <v>17</v>
@@ -7657,18 +7660,18 @@
         <v>29</v>
       </c>
       <c r="G255" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1857</v>
+        <v>2114</v>
       </c>
       <c r="B256">
         <v>2</v>
       </c>
       <c r="C256">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D256">
         <v>17</v>
@@ -7680,18 +7683,18 @@
         <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1858</v>
+        <v>2115</v>
       </c>
       <c r="B257">
         <v>2</v>
       </c>
       <c r="C257">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D257">
         <v>17</v>
@@ -7703,7 +7706,7 @@
         <v>38</v>
       </c>
       <c r="G257" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/db_sports.xlsx
+++ b/data-raw/db_sports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\sports-predict\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C444BBED-BF14-4754-81FA-160AFE5176EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045810A7-EE5D-43BC-BAE3-0CB89668CFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1275" windowWidth="25425" windowHeight="14925" tabRatio="730" activeTab="1" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="13485" windowHeight="11520" tabRatio="730" activeTab="1" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_tm" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="192">
   <si>
     <t>game_result_id</t>
   </si>
@@ -599,6 +599,18 @@
   </si>
   <si>
     <t>WSH</t>
+  </si>
+  <si>
+    <t>LVR</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>LAV</t>
   </si>
 </sst>
 </file>
@@ -950,11 +962,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3ECA7-9A25-40A8-9453-2E882EECF8B1}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1551,7 +1566,7 @@
         <v>92</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1782,6 +1797,29 @@
       </c>
       <c r="G36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1792,9 +1830,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E0B7D-391B-47A1-BFA0-908005119D46}">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="F266" sqref="F266"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7707,6 +7747,374 @@
       </c>
       <c r="G257" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2116</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>2020</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>20</v>
+      </c>
+      <c r="G258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2117</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>2020</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2118</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>2020</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>36</v>
+      </c>
+      <c r="G260" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2119</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>2020</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>34</v>
+      </c>
+      <c r="G261" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2120</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>2020</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2121</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>2020</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>33</v>
+      </c>
+      <c r="G263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2122</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>2020</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+      <c r="G264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2123</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>2020</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>191</v>
+      </c>
+      <c r="G265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2124</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>2020</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2125</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>2020</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>7</v>
+      </c>
+      <c r="G267" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2126</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>2020</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2127</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>2020</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>24</v>
+      </c>
+      <c r="G269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2128</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>2020</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>27</v>
+      </c>
+      <c r="G270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2129</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>2020</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271" t="s">
+        <v>32</v>
+      </c>
+      <c r="G271" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2130</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>2020</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2131</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>2020</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/db_sports.xlsx
+++ b/data-raw/db_sports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\sports-predict\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045810A7-EE5D-43BC-BAE3-0CB89668CFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21504C3B-6D4C-4E17-ACF1-D3427A32074A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="13485" windowHeight="11520" tabRatio="730" activeTab="1" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="13485" windowHeight="11520" tabRatio="730" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_tm" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="192">
   <si>
     <t>game_result_id</t>
   </si>
@@ -610,7 +610,7 @@
     <t>Las Vegas</t>
   </si>
   <si>
-    <t>LAV</t>
+    <t>LV</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3ECA7-9A25-40A8-9453-2E882EECF8B1}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1830,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E0B7D-391B-47A1-BFA0-908005119D46}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="F266" sqref="F266"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:A513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7754,7 +7754,7 @@
         <v>2116</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258">
         <v>2020</v>
@@ -7766,10 +7766,10 @@
         <v>1</v>
       </c>
       <c r="F258" t="s">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
         <v>20</v>
-      </c>
-      <c r="G258" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7777,7 +7777,7 @@
         <v>2117</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259">
         <v>2020</v>
@@ -7789,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" t="s">
         <v>30</v>
-      </c>
-      <c r="G259" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7800,7 +7800,7 @@
         <v>2118</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C260">
         <v>2020</v>
@@ -7812,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G260" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7823,7 +7823,7 @@
         <v>2119</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C261">
         <v>2020</v>
@@ -7835,10 +7835,10 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G261" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7846,7 +7846,7 @@
         <v>2120</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262">
         <v>2020</v>
@@ -7858,10 +7858,10 @@
         <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G262" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7869,7 +7869,7 @@
         <v>2121</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263">
         <v>2020</v>
@@ -7881,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G263" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
         <v>2122</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <v>2020</v>
@@ -7904,10 +7904,10 @@
         <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7915,7 +7915,7 @@
         <v>2123</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265">
         <v>2020</v>
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="G265" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7938,7 +7938,7 @@
         <v>2124</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266">
         <v>2020</v>
@@ -7950,10 +7950,10 @@
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
         <v>2125</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267">
         <v>2020</v>
@@ -7973,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G267" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7984,7 +7984,7 @@
         <v>2126</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268">
         <v>2020</v>
@@ -7996,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" t="s">
         <v>25</v>
-      </c>
-      <c r="G268" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -8007,7 +8007,7 @@
         <v>2127</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269">
         <v>2020</v>
@@ -8019,10 +8019,10 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
+        <v>23</v>
+      </c>
+      <c r="G269" t="s">
         <v>24</v>
-      </c>
-      <c r="G269" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -8030,7 +8030,7 @@
         <v>2128</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270">
         <v>2020</v>
@@ -8042,10 +8042,10 @@
         <v>1</v>
       </c>
       <c r="F270" t="s">
+        <v>16</v>
+      </c>
+      <c r="G270" t="s">
         <v>27</v>
-      </c>
-      <c r="G270" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -8053,7 +8053,7 @@
         <v>2129</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C271">
         <v>2020</v>
@@ -8065,10 +8065,10 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
+        <v>38</v>
+      </c>
+      <c r="G271" t="s">
         <v>32</v>
-      </c>
-      <c r="G271" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -8076,7 +8076,7 @@
         <v>2130</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272">
         <v>2020</v>
@@ -8088,10 +8088,10 @@
         <v>1</v>
       </c>
       <c r="F272" t="s">
+        <v>21</v>
+      </c>
+      <c r="G272" t="s">
         <v>10</v>
-      </c>
-      <c r="G272" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -8099,7 +8099,7 @@
         <v>2131</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273">
         <v>2020</v>
@@ -8111,10 +8111,5530 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" t="s">
         <v>14</v>
       </c>
-      <c r="G273" t="s">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2132</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>2020</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2133</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>2020</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275" t="s">
+        <v>34</v>
+      </c>
+      <c r="G275" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2134</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>2020</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2135</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>2020</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277" t="s">
+        <v>24</v>
+      </c>
+      <c r="G277" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2136</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>2020</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278" t="s">
+        <v>7</v>
+      </c>
+      <c r="G278" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2137</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>2020</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
+        <v>32</v>
+      </c>
+      <c r="G279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2138</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>2020</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280" t="s">
+        <v>33</v>
+      </c>
+      <c r="G280" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2139</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>2020</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281" t="s">
+        <v>11</v>
+      </c>
+      <c r="G281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2140</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>2020</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282" t="s">
+        <v>13</v>
+      </c>
+      <c r="G282" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2141</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>2020</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283" t="s">
+        <v>36</v>
+      </c>
+      <c r="G283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2142</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="C284">
+        <v>2020</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2143</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>2020</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285" t="s">
+        <v>27</v>
+      </c>
+      <c r="G285" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2144</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>2020</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286" t="s">
+        <v>25</v>
+      </c>
+      <c r="G286" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2145</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287">
+        <v>2020</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s">
+        <v>20</v>
+      </c>
+      <c r="G287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2146</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>2020</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288" t="s">
+        <v>30</v>
+      </c>
+      <c r="G288" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2147</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>2020</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289" t="s">
+        <v>188</v>
+      </c>
+      <c r="G289" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2148</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>2020</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>3</v>
+      </c>
+      <c r="F290" t="s">
+        <v>22</v>
+      </c>
+      <c r="G290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2149</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>2020</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+      <c r="E291">
+        <v>3</v>
+      </c>
+      <c r="F291" t="s">
+        <v>21</v>
+      </c>
+      <c r="G291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2150</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>2020</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>15</v>
+      </c>
+      <c r="G292" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2151</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>2020</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+      <c r="E293">
+        <v>3</v>
+      </c>
+      <c r="F293" t="s">
+        <v>9</v>
+      </c>
+      <c r="G293" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2152</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>2020</v>
+      </c>
+      <c r="D294">
+        <v>3</v>
+      </c>
+      <c r="E294">
+        <v>3</v>
+      </c>
+      <c r="F294" t="s">
+        <v>7</v>
+      </c>
+      <c r="G294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2153</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>2020</v>
+      </c>
+      <c r="D295">
+        <v>3</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295" t="s">
+        <v>18</v>
+      </c>
+      <c r="G295" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2154</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>2020</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296">
+        <v>3</v>
+      </c>
+      <c r="F296" t="s">
+        <v>8</v>
+      </c>
+      <c r="G296" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2155</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>2020</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+      <c r="E297">
+        <v>3</v>
+      </c>
+      <c r="F297" t="s">
+        <v>19</v>
+      </c>
+      <c r="G297" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2156</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298">
+        <v>2020</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298">
+        <v>3</v>
+      </c>
+      <c r="F298" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2157</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>2020</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299">
+        <v>3</v>
+      </c>
+      <c r="F299" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2158</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>2020</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300" t="s">
+        <v>11</v>
+      </c>
+      <c r="G300" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2159</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>2020</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301" t="s">
+        <v>27</v>
+      </c>
+      <c r="G301" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2160</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>2020</v>
+      </c>
+      <c r="D302">
+        <v>3</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+      <c r="F302" t="s">
+        <v>29</v>
+      </c>
+      <c r="G302" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2161</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>2020</v>
+      </c>
+      <c r="D303">
+        <v>3</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+      <c r="F303" t="s">
+        <v>30</v>
+      </c>
+      <c r="G303" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2162</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>2020</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304" t="s">
+        <v>23</v>
+      </c>
+      <c r="G304" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2163</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <v>2020</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+      <c r="F305" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2164</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>2020</v>
+      </c>
+      <c r="D306">
+        <v>4</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+      <c r="F306" t="s">
+        <v>36</v>
+      </c>
+      <c r="G306" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2165</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>2020</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+      <c r="E307">
+        <v>4</v>
+      </c>
+      <c r="F307" t="s">
+        <v>31</v>
+      </c>
+      <c r="G307" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2166</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>2020</v>
+      </c>
+      <c r="D308">
+        <v>4</v>
+      </c>
+      <c r="E308">
+        <v>4</v>
+      </c>
+      <c r="F308" t="s">
+        <v>28</v>
+      </c>
+      <c r="G308" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2167</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>2020</v>
+      </c>
+      <c r="D309">
+        <v>4</v>
+      </c>
+      <c r="E309">
+        <v>4</v>
+      </c>
+      <c r="F309" t="s">
+        <v>24</v>
+      </c>
+      <c r="G309" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2168</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>2020</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
+      </c>
+      <c r="E310">
+        <v>4</v>
+      </c>
+      <c r="F310" t="s">
+        <v>13</v>
+      </c>
+      <c r="G310" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2169</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>2020</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>4</v>
+      </c>
+      <c r="F311" t="s">
+        <v>34</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2170</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>2020</v>
+      </c>
+      <c r="D312">
+        <v>4</v>
+      </c>
+      <c r="E312">
+        <v>4</v>
+      </c>
+      <c r="F312" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2171</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>2020</v>
+      </c>
+      <c r="D313">
+        <v>4</v>
+      </c>
+      <c r="E313">
+        <v>4</v>
+      </c>
+      <c r="F313" t="s">
+        <v>32</v>
+      </c>
+      <c r="G313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2172</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>2020</v>
+      </c>
+      <c r="D314">
+        <v>4</v>
+      </c>
+      <c r="E314">
+        <v>4</v>
+      </c>
+      <c r="F314" t="s">
+        <v>35</v>
+      </c>
+      <c r="G314" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2173</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>2020</v>
+      </c>
+      <c r="D315">
+        <v>4</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
+      </c>
+      <c r="F315" t="s">
+        <v>20</v>
+      </c>
+      <c r="G315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2174</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>2020</v>
+      </c>
+      <c r="D316">
+        <v>4</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2175</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>2020</v>
+      </c>
+      <c r="D317">
+        <v>4</v>
+      </c>
+      <c r="E317">
+        <v>4</v>
+      </c>
+      <c r="F317" t="s">
+        <v>38</v>
+      </c>
+      <c r="G317" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2176</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>2020</v>
+      </c>
+      <c r="D318">
+        <v>4</v>
+      </c>
+      <c r="E318">
+        <v>4</v>
+      </c>
+      <c r="F318" t="s">
+        <v>188</v>
+      </c>
+      <c r="G318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2177</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>2020</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
+      <c r="E319">
+        <v>4</v>
+      </c>
+      <c r="F319" t="s">
+        <v>26</v>
+      </c>
+      <c r="G319" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2178</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>2020</v>
+      </c>
+      <c r="D320">
+        <v>4</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
+      </c>
+      <c r="F320" t="s">
+        <v>16</v>
+      </c>
+      <c r="G320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2179</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>2020</v>
+      </c>
+      <c r="D321">
+        <v>4</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+      <c r="F321" t="s">
+        <v>33</v>
+      </c>
+      <c r="G321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2180</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>2020</v>
+      </c>
+      <c r="D322">
+        <v>5</v>
+      </c>
+      <c r="E322">
+        <v>5</v>
+      </c>
+      <c r="F322" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2181</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>2020</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323">
+        <v>5</v>
+      </c>
+      <c r="F323" t="s">
+        <v>8</v>
+      </c>
+      <c r="G323" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2182</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>2020</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+      <c r="F324" t="s">
+        <v>28</v>
+      </c>
+      <c r="G324" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2183</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>2020</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325">
+        <v>5</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2184</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>2020</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326" t="s">
+        <v>36</v>
+      </c>
+      <c r="G326" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2185</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>2020</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327" t="s">
+        <v>17</v>
+      </c>
+      <c r="G327" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2186</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328">
+        <v>2020</v>
+      </c>
+      <c r="D328">
+        <v>5</v>
+      </c>
+      <c r="E328">
+        <v>5</v>
+      </c>
+      <c r="F328" t="s">
+        <v>19</v>
+      </c>
+      <c r="G328" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2187</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329">
+        <v>2020</v>
+      </c>
+      <c r="D329">
+        <v>5</v>
+      </c>
+      <c r="E329">
+        <v>5</v>
+      </c>
+      <c r="F329" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2188</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>2020</v>
+      </c>
+      <c r="D330">
+        <v>5</v>
+      </c>
+      <c r="E330">
+        <v>5</v>
+      </c>
+      <c r="F330" t="s">
+        <v>20</v>
+      </c>
+      <c r="G330" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2189</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331">
+        <v>2020</v>
+      </c>
+      <c r="D331">
+        <v>5</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+      <c r="F331" t="s">
+        <v>26</v>
+      </c>
+      <c r="G331" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2190</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>2020</v>
+      </c>
+      <c r="D332">
+        <v>5</v>
+      </c>
+      <c r="E332">
+        <v>5</v>
+      </c>
+      <c r="F332" t="s">
+        <v>16</v>
+      </c>
+      <c r="G332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2191</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <v>2020</v>
+      </c>
+      <c r="D333">
+        <v>5</v>
+      </c>
+      <c r="E333">
+        <v>5</v>
+      </c>
+      <c r="F333" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2192</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334">
+        <v>2020</v>
+      </c>
+      <c r="D334">
+        <v>5</v>
+      </c>
+      <c r="E334">
+        <v>5</v>
+      </c>
+      <c r="F334" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2193</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <v>2020</v>
+      </c>
+      <c r="D335">
+        <v>5</v>
+      </c>
+      <c r="E335">
+        <v>5</v>
+      </c>
+      <c r="F335" t="s">
+        <v>30</v>
+      </c>
+      <c r="G335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2194</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>2020</v>
+      </c>
+      <c r="D336">
+        <v>5</v>
+      </c>
+      <c r="E336">
+        <v>5</v>
+      </c>
+      <c r="F336" t="s">
+        <v>23</v>
+      </c>
+      <c r="G336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2195</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>2020</v>
+      </c>
+      <c r="D337">
+        <v>6</v>
+      </c>
+      <c r="E337">
+        <v>6</v>
+      </c>
+      <c r="F337" t="s">
+        <v>18</v>
+      </c>
+      <c r="G337" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2196</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="C338">
+        <v>2020</v>
+      </c>
+      <c r="D338">
+        <v>6</v>
+      </c>
+      <c r="E338">
+        <v>6</v>
+      </c>
+      <c r="F338" t="s">
+        <v>11</v>
+      </c>
+      <c r="G338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2197</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>2020</v>
+      </c>
+      <c r="D339">
+        <v>6</v>
+      </c>
+      <c r="E339">
+        <v>6</v>
+      </c>
+      <c r="F339" t="s">
+        <v>22</v>
+      </c>
+      <c r="G339" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2198</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>2020</v>
+      </c>
+      <c r="D340">
+        <v>6</v>
+      </c>
+      <c r="E340">
+        <v>6</v>
+      </c>
+      <c r="F340" t="s">
+        <v>15</v>
+      </c>
+      <c r="G340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2199</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>2020</v>
+      </c>
+      <c r="D341">
+        <v>6</v>
+      </c>
+      <c r="E341">
+        <v>6</v>
+      </c>
+      <c r="F341" t="s">
+        <v>21</v>
+      </c>
+      <c r="G341" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2200</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>2020</v>
+      </c>
+      <c r="D342">
+        <v>6</v>
+      </c>
+      <c r="E342">
+        <v>6</v>
+      </c>
+      <c r="F342" t="s">
+        <v>31</v>
+      </c>
+      <c r="G342" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2201</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>2020</v>
+      </c>
+      <c r="D343">
+        <v>6</v>
+      </c>
+      <c r="E343">
+        <v>6</v>
+      </c>
+      <c r="F343" t="s">
+        <v>7</v>
+      </c>
+      <c r="G343" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2202</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <v>2020</v>
+      </c>
+      <c r="D344">
+        <v>6</v>
+      </c>
+      <c r="E344">
+        <v>6</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2203</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>2020</v>
+      </c>
+      <c r="D345">
+        <v>6</v>
+      </c>
+      <c r="E345">
+        <v>6</v>
+      </c>
+      <c r="F345" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2204</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>2020</v>
+      </c>
+      <c r="D346">
+        <v>6</v>
+      </c>
+      <c r="E346">
+        <v>6</v>
+      </c>
+      <c r="F346" t="s">
+        <v>29</v>
+      </c>
+      <c r="G346" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2205</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>2020</v>
+      </c>
+      <c r="D347">
+        <v>6</v>
+      </c>
+      <c r="E347">
+        <v>6</v>
+      </c>
+      <c r="F347" t="s">
+        <v>25</v>
+      </c>
+      <c r="G347" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2206</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>2020</v>
+      </c>
+      <c r="D348">
+        <v>6</v>
+      </c>
+      <c r="E348">
+        <v>6</v>
+      </c>
+      <c r="F348" t="s">
+        <v>24</v>
+      </c>
+      <c r="G348" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2207</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349">
+        <v>2020</v>
+      </c>
+      <c r="D349">
+        <v>6</v>
+      </c>
+      <c r="E349">
+        <v>6</v>
+      </c>
+      <c r="F349" t="s">
+        <v>16</v>
+      </c>
+      <c r="G349" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2208</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>2020</v>
+      </c>
+      <c r="D350">
+        <v>6</v>
+      </c>
+      <c r="E350">
+        <v>6</v>
+      </c>
+      <c r="F350" t="s">
+        <v>32</v>
+      </c>
+      <c r="G350" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2209</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>2020</v>
+      </c>
+      <c r="D351">
+        <v>7</v>
+      </c>
+      <c r="E351">
+        <v>7</v>
+      </c>
+      <c r="F351" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2210</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>2020</v>
+      </c>
+      <c r="D352">
+        <v>7</v>
+      </c>
+      <c r="E352">
+        <v>7</v>
+      </c>
+      <c r="F352" t="s">
+        <v>20</v>
+      </c>
+      <c r="G352" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2211</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <v>2020</v>
+      </c>
+      <c r="D353">
+        <v>7</v>
+      </c>
+      <c r="E353">
+        <v>7</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2212</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>2020</v>
+      </c>
+      <c r="D354">
+        <v>7</v>
+      </c>
+      <c r="E354">
+        <v>7</v>
+      </c>
+      <c r="F354" t="s">
+        <v>12</v>
+      </c>
+      <c r="G354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2213</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>2020</v>
+      </c>
+      <c r="D355">
+        <v>7</v>
+      </c>
+      <c r="E355">
+        <v>7</v>
+      </c>
+      <c r="F355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G355" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2214</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356">
+        <v>2020</v>
+      </c>
+      <c r="D356">
+        <v>7</v>
+      </c>
+      <c r="E356">
+        <v>7</v>
+      </c>
+      <c r="F356" t="s">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2215</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357">
+        <v>2020</v>
+      </c>
+      <c r="D357">
+        <v>7</v>
+      </c>
+      <c r="E357">
+        <v>7</v>
+      </c>
+      <c r="F357" t="s">
+        <v>23</v>
+      </c>
+      <c r="G357" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2216</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358">
+        <v>2020</v>
+      </c>
+      <c r="D358">
+        <v>7</v>
+      </c>
+      <c r="E358">
+        <v>7</v>
+      </c>
+      <c r="F358" t="s">
+        <v>8</v>
+      </c>
+      <c r="G358" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2217</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="C359">
+        <v>2020</v>
+      </c>
+      <c r="D359">
+        <v>7</v>
+      </c>
+      <c r="E359">
+        <v>7</v>
+      </c>
+      <c r="F359" t="s">
+        <v>17</v>
+      </c>
+      <c r="G359" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2218</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>2020</v>
+      </c>
+      <c r="D360">
+        <v>7</v>
+      </c>
+      <c r="E360">
+        <v>7</v>
+      </c>
+      <c r="F360" t="s">
+        <v>27</v>
+      </c>
+      <c r="G360" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2219</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361">
+        <v>2020</v>
+      </c>
+      <c r="D361">
+        <v>7</v>
+      </c>
+      <c r="E361">
+        <v>7</v>
+      </c>
+      <c r="F361" t="s">
+        <v>29</v>
+      </c>
+      <c r="G361" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2220</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362">
+        <v>2020</v>
+      </c>
+      <c r="D362">
+        <v>7</v>
+      </c>
+      <c r="E362">
+        <v>7</v>
+      </c>
+      <c r="F362" t="s">
+        <v>19</v>
+      </c>
+      <c r="G362" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2221</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>2020</v>
+      </c>
+      <c r="D363">
+        <v>7</v>
+      </c>
+      <c r="E363">
+        <v>7</v>
+      </c>
+      <c r="F363" t="s">
+        <v>188</v>
+      </c>
+      <c r="G363" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2222</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364">
+        <v>2020</v>
+      </c>
+      <c r="D364">
+        <v>7</v>
+      </c>
+      <c r="E364">
+        <v>7</v>
+      </c>
+      <c r="F364" t="s">
+        <v>38</v>
+      </c>
+      <c r="G364" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2223</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365">
+        <v>2020</v>
+      </c>
+      <c r="D365">
+        <v>8</v>
+      </c>
+      <c r="E365">
+        <v>8</v>
+      </c>
+      <c r="F365" t="s">
+        <v>31</v>
+      </c>
+      <c r="G365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2224</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>2020</v>
+      </c>
+      <c r="D366">
+        <v>8</v>
+      </c>
+      <c r="E366">
+        <v>8</v>
+      </c>
+      <c r="F366" t="s">
+        <v>12</v>
+      </c>
+      <c r="G366" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2225</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367">
+        <v>2020</v>
+      </c>
+      <c r="D367">
+        <v>8</v>
+      </c>
+      <c r="E367">
+        <v>8</v>
+      </c>
+      <c r="F367" t="s">
+        <v>9</v>
+      </c>
+      <c r="G367" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2226</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>2020</v>
+      </c>
+      <c r="D368">
+        <v>8</v>
+      </c>
+      <c r="E368">
+        <v>8</v>
+      </c>
+      <c r="F368" t="s">
+        <v>35</v>
+      </c>
+      <c r="G368" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2227</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369">
+        <v>2020</v>
+      </c>
+      <c r="D369">
+        <v>8</v>
+      </c>
+      <c r="E369">
+        <v>8</v>
+      </c>
+      <c r="F369" t="s">
+        <v>33</v>
+      </c>
+      <c r="G369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2228</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>2020</v>
+      </c>
+      <c r="D370">
+        <v>8</v>
+      </c>
+      <c r="E370">
+        <v>8</v>
+      </c>
+      <c r="F370" t="s">
+        <v>18</v>
+      </c>
+      <c r="G370" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2229</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>2020</v>
+      </c>
+      <c r="D371">
+        <v>8</v>
+      </c>
+      <c r="E371">
+        <v>8</v>
+      </c>
+      <c r="F371" t="s">
+        <v>26</v>
+      </c>
+      <c r="G371" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2230</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>2020</v>
+      </c>
+      <c r="D372">
+        <v>8</v>
+      </c>
+      <c r="E372">
+        <v>8</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2231</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+      <c r="C373">
+        <v>2020</v>
+      </c>
+      <c r="D373">
+        <v>8</v>
+      </c>
+      <c r="E373">
+        <v>8</v>
+      </c>
+      <c r="F373" t="s">
+        <v>25</v>
+      </c>
+      <c r="G373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2232</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374">
+        <v>2020</v>
+      </c>
+      <c r="D374">
+        <v>8</v>
+      </c>
+      <c r="E374">
+        <v>8</v>
+      </c>
+      <c r="F374" t="s">
+        <v>34</v>
+      </c>
+      <c r="G374" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2233</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375">
+        <v>2020</v>
+      </c>
+      <c r="D375">
+        <v>8</v>
+      </c>
+      <c r="E375">
+        <v>8</v>
+      </c>
+      <c r="F375" t="s">
+        <v>30</v>
+      </c>
+      <c r="G375" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2234</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>2020</v>
+      </c>
+      <c r="D376">
+        <v>8</v>
+      </c>
+      <c r="E376">
+        <v>8</v>
+      </c>
+      <c r="F376" t="s">
+        <v>7</v>
+      </c>
+      <c r="G376" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2235</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377">
+        <v>2020</v>
+      </c>
+      <c r="D377">
+        <v>8</v>
+      </c>
+      <c r="E377">
+        <v>8</v>
+      </c>
+      <c r="F377" t="s">
+        <v>21</v>
+      </c>
+      <c r="G377" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2236</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>2020</v>
+      </c>
+      <c r="D378">
+        <v>9</v>
+      </c>
+      <c r="E378">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2237</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>2020</v>
+      </c>
+      <c r="D379">
+        <v>9</v>
+      </c>
+      <c r="E379">
+        <v>9</v>
+      </c>
+      <c r="F379" t="s">
+        <v>15</v>
+      </c>
+      <c r="G379" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2238</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>2020</v>
+      </c>
+      <c r="D380">
+        <v>9</v>
+      </c>
+      <c r="E380">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>28</v>
+      </c>
+      <c r="G380" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2239</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>2020</v>
+      </c>
+      <c r="D381">
+        <v>9</v>
+      </c>
+      <c r="E381">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>26</v>
+      </c>
+      <c r="G381" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2240</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382">
+        <v>2020</v>
+      </c>
+      <c r="D382">
+        <v>9</v>
+      </c>
+      <c r="E382">
+        <v>9</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+      <c r="G382" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2241</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>2020</v>
+      </c>
+      <c r="D383">
+        <v>9</v>
+      </c>
+      <c r="E383">
+        <v>9</v>
+      </c>
+      <c r="F383" t="s">
+        <v>11</v>
+      </c>
+      <c r="G383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2242</v>
+      </c>
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>2020</v>
+      </c>
+      <c r="D384">
+        <v>9</v>
+      </c>
+      <c r="E384">
+        <v>9</v>
+      </c>
+      <c r="F384" t="s">
+        <v>22</v>
+      </c>
+      <c r="G384" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2243</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385">
+        <v>2020</v>
+      </c>
+      <c r="D385">
+        <v>9</v>
+      </c>
+      <c r="E385">
+        <v>9</v>
+      </c>
+      <c r="F385" t="s">
+        <v>18</v>
+      </c>
+      <c r="G385" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2244</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+      <c r="C386">
+        <v>2020</v>
+      </c>
+      <c r="D386">
+        <v>9</v>
+      </c>
+      <c r="E386">
+        <v>9</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2245</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>2020</v>
+      </c>
+      <c r="D387">
+        <v>9</v>
+      </c>
+      <c r="E387">
+        <v>9</v>
+      </c>
+      <c r="F387" t="s">
+        <v>25</v>
+      </c>
+      <c r="G387" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2246</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388">
+        <v>2020</v>
+      </c>
+      <c r="D388">
+        <v>9</v>
+      </c>
+      <c r="E388">
+        <v>9</v>
+      </c>
+      <c r="F388" t="s">
+        <v>27</v>
+      </c>
+      <c r="G388" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2247</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="C389">
+        <v>2020</v>
+      </c>
+      <c r="D389">
+        <v>9</v>
+      </c>
+      <c r="E389">
+        <v>9</v>
+      </c>
+      <c r="F389" t="s">
+        <v>32</v>
+      </c>
+      <c r="G389" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2248</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390">
+        <v>2020</v>
+      </c>
+      <c r="D390">
+        <v>9</v>
+      </c>
+      <c r="E390">
+        <v>9</v>
+      </c>
+      <c r="F390" t="s">
+        <v>24</v>
+      </c>
+      <c r="G390" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2249</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391">
+        <v>2020</v>
+      </c>
+      <c r="D391">
+        <v>9</v>
+      </c>
+      <c r="E391">
+        <v>9</v>
+      </c>
+      <c r="F391" t="s">
+        <v>36</v>
+      </c>
+      <c r="G391" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2250</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392">
+        <v>2020</v>
+      </c>
+      <c r="D392">
+        <v>10</v>
+      </c>
+      <c r="E392">
+        <v>10</v>
+      </c>
+      <c r="F392" t="s">
+        <v>14</v>
+      </c>
+      <c r="G392" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2251</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>2020</v>
+      </c>
+      <c r="D393">
+        <v>10</v>
+      </c>
+      <c r="E393">
+        <v>10</v>
+      </c>
+      <c r="F393" t="s">
+        <v>9</v>
+      </c>
+      <c r="G393" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2252</v>
+      </c>
+      <c r="B394">
+        <v>2</v>
+      </c>
+      <c r="C394">
+        <v>2020</v>
+      </c>
+      <c r="D394">
+        <v>10</v>
+      </c>
+      <c r="E394">
+        <v>10</v>
+      </c>
+      <c r="F394" t="s">
+        <v>35</v>
+      </c>
+      <c r="G394" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2253</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="C395">
+        <v>2020</v>
+      </c>
+      <c r="D395">
+        <v>10</v>
+      </c>
+      <c r="E395">
+        <v>10</v>
+      </c>
+      <c r="F395" t="s">
+        <v>33</v>
+      </c>
+      <c r="G395" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2254</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396">
+        <v>2020</v>
+      </c>
+      <c r="D396">
+        <v>10</v>
+      </c>
+      <c r="E396">
+        <v>10</v>
+      </c>
+      <c r="F396" t="s">
+        <v>21</v>
+      </c>
+      <c r="G396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2255</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>2020</v>
+      </c>
+      <c r="D397">
+        <v>10</v>
+      </c>
+      <c r="E397">
+        <v>10</v>
+      </c>
+      <c r="F397" t="s">
+        <v>31</v>
+      </c>
+      <c r="G397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2256</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>2020</v>
+      </c>
+      <c r="D398">
+        <v>10</v>
+      </c>
+      <c r="E398">
+        <v>10</v>
+      </c>
+      <c r="F398" t="s">
+        <v>10</v>
+      </c>
+      <c r="G398" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2257</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399">
+        <v>2020</v>
+      </c>
+      <c r="D399">
+        <v>10</v>
+      </c>
+      <c r="E399">
+        <v>10</v>
+      </c>
+      <c r="F399" t="s">
+        <v>27</v>
+      </c>
+      <c r="G399" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2258</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400">
+        <v>2020</v>
+      </c>
+      <c r="D400">
+        <v>10</v>
+      </c>
+      <c r="E400">
+        <v>10</v>
+      </c>
+      <c r="F400" t="s">
+        <v>188</v>
+      </c>
+      <c r="G400" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2259</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>2020</v>
+      </c>
+      <c r="D401">
+        <v>10</v>
+      </c>
+      <c r="E401">
+        <v>10</v>
+      </c>
+      <c r="F401" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2260</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>2020</v>
+      </c>
+      <c r="D402">
+        <v>10</v>
+      </c>
+      <c r="E402">
+        <v>10</v>
+      </c>
+      <c r="F402" t="s">
+        <v>38</v>
+      </c>
+      <c r="G402" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2261</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403">
+        <v>2020</v>
+      </c>
+      <c r="D403">
+        <v>10</v>
+      </c>
+      <c r="E403">
+        <v>10</v>
+      </c>
+      <c r="F403" t="s">
+        <v>23</v>
+      </c>
+      <c r="G403" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2262</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>2020</v>
+      </c>
+      <c r="D404">
+        <v>10</v>
+      </c>
+      <c r="E404">
+        <v>10</v>
+      </c>
+      <c r="F404" t="s">
+        <v>19</v>
+      </c>
+      <c r="G404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2263</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>2020</v>
+      </c>
+      <c r="D405">
+        <v>10</v>
+      </c>
+      <c r="E405">
+        <v>10</v>
+      </c>
+      <c r="F405" t="s">
+        <v>34</v>
+      </c>
+      <c r="G405" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2264</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>2020</v>
+      </c>
+      <c r="D406">
+        <v>11</v>
+      </c>
+      <c r="E406">
+        <v>11</v>
+      </c>
+      <c r="F406" t="s">
+        <v>30</v>
+      </c>
+      <c r="G406" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2265</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>2020</v>
+      </c>
+      <c r="D407">
+        <v>11</v>
+      </c>
+      <c r="E407">
+        <v>11</v>
+      </c>
+      <c r="F407" t="s">
+        <v>31</v>
+      </c>
+      <c r="G407" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2266</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>2020</v>
+      </c>
+      <c r="D408">
+        <v>11</v>
+      </c>
+      <c r="E408">
+        <v>11</v>
+      </c>
+      <c r="F408" t="s">
+        <v>17</v>
+      </c>
+      <c r="G408" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2267</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>2020</v>
+      </c>
+      <c r="D409">
+        <v>11</v>
+      </c>
+      <c r="E409">
+        <v>11</v>
+      </c>
+      <c r="F409" t="s">
+        <v>9</v>
+      </c>
+      <c r="G409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2268</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>2020</v>
+      </c>
+      <c r="D410">
+        <v>11</v>
+      </c>
+      <c r="E410">
+        <v>11</v>
+      </c>
+      <c r="F410" t="s">
+        <v>11</v>
+      </c>
+      <c r="G410" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2269</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>2020</v>
+      </c>
+      <c r="D411">
+        <v>11</v>
+      </c>
+      <c r="E411">
+        <v>11</v>
+      </c>
+      <c r="F411" t="s">
+        <v>28</v>
+      </c>
+      <c r="G411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2270</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>2020</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>11</v>
+      </c>
+      <c r="F412" t="s">
+        <v>23</v>
+      </c>
+      <c r="G412" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2271</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>2020</v>
+      </c>
+      <c r="D413">
+        <v>11</v>
+      </c>
+      <c r="E413">
+        <v>11</v>
+      </c>
+      <c r="F413" t="s">
+        <v>20</v>
+      </c>
+      <c r="G413" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2272</v>
+      </c>
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414">
+        <v>2020</v>
+      </c>
+      <c r="D414">
+        <v>11</v>
+      </c>
+      <c r="E414">
+        <v>11</v>
+      </c>
+      <c r="F414" t="s">
+        <v>22</v>
+      </c>
+      <c r="G414" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2273</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>2020</v>
+      </c>
+      <c r="D415">
+        <v>11</v>
+      </c>
+      <c r="E415">
+        <v>11</v>
+      </c>
+      <c r="F415" t="s">
+        <v>29</v>
+      </c>
+      <c r="G415" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2274</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>2020</v>
+      </c>
+      <c r="D416">
+        <v>11</v>
+      </c>
+      <c r="E416">
+        <v>11</v>
+      </c>
+      <c r="F416" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2275</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>2020</v>
+      </c>
+      <c r="D417">
+        <v>11</v>
+      </c>
+      <c r="E417">
+        <v>11</v>
+      </c>
+      <c r="F417" t="s">
+        <v>188</v>
+      </c>
+      <c r="G417" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2276</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>2020</v>
+      </c>
+      <c r="D418">
+        <v>11</v>
+      </c>
+      <c r="E418">
+        <v>11</v>
+      </c>
+      <c r="F418" t="s">
+        <v>24</v>
+      </c>
+      <c r="G418" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2277</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419">
+        <v>2020</v>
+      </c>
+      <c r="D419">
+        <v>12</v>
+      </c>
+      <c r="E419">
+        <v>12</v>
+      </c>
+      <c r="F419" t="s">
+        <v>35</v>
+      </c>
+      <c r="G419" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2278</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+      <c r="C420">
+        <v>2020</v>
+      </c>
+      <c r="D420">
+        <v>12</v>
+      </c>
+      <c r="E420">
+        <v>12</v>
+      </c>
+      <c r="F420" t="s">
+        <v>32</v>
+      </c>
+      <c r="G420" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2279</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421">
+        <v>2020</v>
+      </c>
+      <c r="D421">
+        <v>12</v>
+      </c>
+      <c r="E421">
+        <v>12</v>
+      </c>
+      <c r="F421" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2280</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+      <c r="C422">
+        <v>2020</v>
+      </c>
+      <c r="D422">
+        <v>12</v>
+      </c>
+      <c r="E422">
+        <v>12</v>
+      </c>
+      <c r="F422" t="s">
+        <v>19</v>
+      </c>
+      <c r="G422" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2281</v>
+      </c>
+      <c r="B423">
+        <v>2</v>
+      </c>
+      <c r="C423">
+        <v>2020</v>
+      </c>
+      <c r="D423">
+        <v>12</v>
+      </c>
+      <c r="E423">
+        <v>12</v>
+      </c>
+      <c r="F423" t="s">
+        <v>11</v>
+      </c>
+      <c r="G423" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2282</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+      <c r="C424">
+        <v>2020</v>
+      </c>
+      <c r="D424">
+        <v>12</v>
+      </c>
+      <c r="E424">
+        <v>12</v>
+      </c>
+      <c r="F424" t="s">
+        <v>12</v>
+      </c>
+      <c r="G424" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2283</v>
+      </c>
+      <c r="B425">
+        <v>2</v>
+      </c>
+      <c r="C425">
+        <v>2020</v>
+      </c>
+      <c r="D425">
+        <v>12</v>
+      </c>
+      <c r="E425">
+        <v>12</v>
+      </c>
+      <c r="F425" t="s">
+        <v>18</v>
+      </c>
+      <c r="G425" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2284</v>
+      </c>
+      <c r="B426">
+        <v>2</v>
+      </c>
+      <c r="C426">
+        <v>2020</v>
+      </c>
+      <c r="D426">
+        <v>12</v>
+      </c>
+      <c r="E426">
+        <v>12</v>
+      </c>
+      <c r="F426" t="s">
+        <v>8</v>
+      </c>
+      <c r="G426" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2285</v>
+      </c>
+      <c r="B427">
+        <v>2</v>
+      </c>
+      <c r="C427">
+        <v>2020</v>
+      </c>
+      <c r="D427">
+        <v>12</v>
+      </c>
+      <c r="E427">
+        <v>12</v>
+      </c>
+      <c r="F427" t="s">
+        <v>22</v>
+      </c>
+      <c r="G427" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2286</v>
+      </c>
+      <c r="B428">
+        <v>2</v>
+      </c>
+      <c r="C428">
+        <v>2020</v>
+      </c>
+      <c r="D428">
+        <v>12</v>
+      </c>
+      <c r="E428">
+        <v>12</v>
+      </c>
+      <c r="F428" t="s">
+        <v>36</v>
+      </c>
+      <c r="G428" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2287</v>
+      </c>
+      <c r="B429">
+        <v>2</v>
+      </c>
+      <c r="C429">
+        <v>2020</v>
+      </c>
+      <c r="D429">
+        <v>12</v>
+      </c>
+      <c r="E429">
+        <v>12</v>
+      </c>
+      <c r="F429" t="s">
+        <v>15</v>
+      </c>
+      <c r="G429" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2288</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>2020</v>
+      </c>
+      <c r="D430">
+        <v>12</v>
+      </c>
+      <c r="E430">
+        <v>12</v>
+      </c>
+      <c r="F430" t="s">
+        <v>29</v>
+      </c>
+      <c r="G430" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2289</v>
+      </c>
+      <c r="B431">
+        <v>2</v>
+      </c>
+      <c r="C431">
+        <v>2020</v>
+      </c>
+      <c r="D431">
+        <v>12</v>
+      </c>
+      <c r="E431">
+        <v>12</v>
+      </c>
+      <c r="F431" t="s">
+        <v>38</v>
+      </c>
+      <c r="G431" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2290</v>
+      </c>
+      <c r="B432">
+        <v>2</v>
+      </c>
+      <c r="C432">
+        <v>2020</v>
+      </c>
+      <c r="D432">
+        <v>12</v>
+      </c>
+      <c r="E432">
+        <v>12</v>
+      </c>
+      <c r="F432" t="s">
+        <v>24</v>
+      </c>
+      <c r="G432" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2291</v>
+      </c>
+      <c r="B433">
+        <v>2</v>
+      </c>
+      <c r="C433">
+        <v>2020</v>
+      </c>
+      <c r="D433">
+        <v>12</v>
+      </c>
+      <c r="E433">
+        <v>12</v>
+      </c>
+      <c r="F433" t="s">
+        <v>33</v>
+      </c>
+      <c r="G433" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2292</v>
+      </c>
+      <c r="B434">
+        <v>2</v>
+      </c>
+      <c r="C434">
+        <v>2020</v>
+      </c>
+      <c r="D434">
+        <v>12</v>
+      </c>
+      <c r="E434">
+        <v>12</v>
+      </c>
+      <c r="F434" t="s">
+        <v>7</v>
+      </c>
+      <c r="G434" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2293</v>
+      </c>
+      <c r="B435">
+        <v>2</v>
+      </c>
+      <c r="C435">
+        <v>2020</v>
+      </c>
+      <c r="D435">
+        <v>13</v>
+      </c>
+      <c r="E435">
+        <v>13</v>
+      </c>
+      <c r="F435" t="s">
+        <v>17</v>
+      </c>
+      <c r="G435" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2294</v>
+      </c>
+      <c r="B436">
+        <v>2</v>
+      </c>
+      <c r="C436">
+        <v>2020</v>
+      </c>
+      <c r="D436">
+        <v>13</v>
+      </c>
+      <c r="E436">
+        <v>13</v>
+      </c>
+      <c r="F436" t="s">
+        <v>8</v>
+      </c>
+      <c r="G436" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2295</v>
+      </c>
+      <c r="B437">
+        <v>2</v>
+      </c>
+      <c r="C437">
+        <v>2020</v>
+      </c>
+      <c r="D437">
+        <v>13</v>
+      </c>
+      <c r="E437">
+        <v>13</v>
+      </c>
+      <c r="F437" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2296</v>
+      </c>
+      <c r="B438">
+        <v>2</v>
+      </c>
+      <c r="C438">
+        <v>2020</v>
+      </c>
+      <c r="D438">
+        <v>13</v>
+      </c>
+      <c r="E438">
+        <v>13</v>
+      </c>
+      <c r="F438" t="s">
+        <v>34</v>
+      </c>
+      <c r="G438" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2297</v>
+      </c>
+      <c r="B439">
+        <v>2</v>
+      </c>
+      <c r="C439">
+        <v>2020</v>
+      </c>
+      <c r="D439">
+        <v>13</v>
+      </c>
+      <c r="E439">
+        <v>13</v>
+      </c>
+      <c r="F439" t="s">
+        <v>20</v>
+      </c>
+      <c r="G439" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2298</v>
+      </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
+      <c r="C440">
+        <v>2020</v>
+      </c>
+      <c r="D440">
+        <v>13</v>
+      </c>
+      <c r="E440">
+        <v>13</v>
+      </c>
+      <c r="F440" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2299</v>
+      </c>
+      <c r="B441">
+        <v>2</v>
+      </c>
+      <c r="C441">
+        <v>2020</v>
+      </c>
+      <c r="D441">
+        <v>13</v>
+      </c>
+      <c r="E441">
+        <v>13</v>
+      </c>
+      <c r="F441" t="s">
+        <v>15</v>
+      </c>
+      <c r="G441" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2300</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>2020</v>
+      </c>
+      <c r="D442">
+        <v>13</v>
+      </c>
+      <c r="E442">
+        <v>13</v>
+      </c>
+      <c r="F442" t="s">
+        <v>14</v>
+      </c>
+      <c r="G442" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2301</v>
+      </c>
+      <c r="B443">
+        <v>2</v>
+      </c>
+      <c r="C443">
+        <v>2020</v>
+      </c>
+      <c r="D443">
+        <v>13</v>
+      </c>
+      <c r="E443">
+        <v>13</v>
+      </c>
+      <c r="F443" t="s">
+        <v>36</v>
+      </c>
+      <c r="G443" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2302</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+      <c r="C444">
+        <v>2020</v>
+      </c>
+      <c r="D444">
+        <v>13</v>
+      </c>
+      <c r="E444">
+        <v>13</v>
+      </c>
+      <c r="F444" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2303</v>
+      </c>
+      <c r="B445">
+        <v>2</v>
+      </c>
+      <c r="C445">
+        <v>2020</v>
+      </c>
+      <c r="D445">
+        <v>13</v>
+      </c>
+      <c r="E445">
+        <v>13</v>
+      </c>
+      <c r="F445" t="s">
+        <v>27</v>
+      </c>
+      <c r="G445" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2304</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+      <c r="C446">
+        <v>2020</v>
+      </c>
+      <c r="D446">
+        <v>13</v>
+      </c>
+      <c r="E446">
+        <v>13</v>
+      </c>
+      <c r="F446" t="s">
+        <v>33</v>
+      </c>
+      <c r="G446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2305</v>
+      </c>
+      <c r="B447">
+        <v>2</v>
+      </c>
+      <c r="C447">
+        <v>2020</v>
+      </c>
+      <c r="D447">
+        <v>13</v>
+      </c>
+      <c r="E447">
+        <v>13</v>
+      </c>
+      <c r="F447" t="s">
+        <v>25</v>
+      </c>
+      <c r="G447" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2306</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+      <c r="C448">
+        <v>2020</v>
+      </c>
+      <c r="D448">
+        <v>13</v>
+      </c>
+      <c r="E448">
+        <v>13</v>
+      </c>
+      <c r="F448" t="s">
+        <v>26</v>
+      </c>
+      <c r="G448" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2307</v>
+      </c>
+      <c r="B449">
+        <v>2</v>
+      </c>
+      <c r="C449">
+        <v>2020</v>
+      </c>
+      <c r="D449">
+        <v>13</v>
+      </c>
+      <c r="E449">
+        <v>13</v>
+      </c>
+      <c r="F449" t="s">
+        <v>16</v>
+      </c>
+      <c r="G449" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2308</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>2020</v>
+      </c>
+      <c r="D450">
+        <v>14</v>
+      </c>
+      <c r="E450">
+        <v>14</v>
+      </c>
+      <c r="F450" t="s">
+        <v>38</v>
+      </c>
+      <c r="G450" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2309</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
+      </c>
+      <c r="C451">
+        <v>2020</v>
+      </c>
+      <c r="D451">
+        <v>14</v>
+      </c>
+      <c r="E451">
+        <v>14</v>
+      </c>
+      <c r="F451" t="s">
+        <v>31</v>
+      </c>
+      <c r="G451" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2310</v>
+      </c>
+      <c r="B452">
+        <v>2</v>
+      </c>
+      <c r="C452">
+        <v>2020</v>
+      </c>
+      <c r="D452">
+        <v>14</v>
+      </c>
+      <c r="E452">
+        <v>14</v>
+      </c>
+      <c r="F452" t="s">
+        <v>24</v>
+      </c>
+      <c r="G452" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2311</v>
+      </c>
+      <c r="B453">
+        <v>2</v>
+      </c>
+      <c r="C453">
+        <v>2020</v>
+      </c>
+      <c r="D453">
+        <v>14</v>
+      </c>
+      <c r="E453">
+        <v>14</v>
+      </c>
+      <c r="F453" t="s">
+        <v>21</v>
+      </c>
+      <c r="G453" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2312</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+      <c r="C454">
+        <v>2020</v>
+      </c>
+      <c r="D454">
+        <v>14</v>
+      </c>
+      <c r="E454">
+        <v>14</v>
+      </c>
+      <c r="F454" t="s">
+        <v>13</v>
+      </c>
+      <c r="G454" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2313</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="C455">
+        <v>2020</v>
+      </c>
+      <c r="D455">
+        <v>14</v>
+      </c>
+      <c r="E455">
+        <v>14</v>
+      </c>
+      <c r="F455" t="s">
+        <v>22</v>
+      </c>
+      <c r="G455" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2314</v>
+      </c>
+      <c r="B456">
+        <v>2</v>
+      </c>
+      <c r="C456">
+        <v>2020</v>
+      </c>
+      <c r="D456">
+        <v>14</v>
+      </c>
+      <c r="E456">
+        <v>14</v>
+      </c>
+      <c r="F456" t="s">
+        <v>35</v>
+      </c>
+      <c r="G456" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2315</v>
+      </c>
+      <c r="B457">
+        <v>2</v>
+      </c>
+      <c r="C457">
+        <v>2020</v>
+      </c>
+      <c r="D457">
+        <v>14</v>
+      </c>
+      <c r="E457">
+        <v>14</v>
+      </c>
+      <c r="F457" t="s">
+        <v>12</v>
+      </c>
+      <c r="G457" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>2316</v>
+      </c>
+      <c r="B458">
+        <v>2</v>
+      </c>
+      <c r="C458">
+        <v>2020</v>
+      </c>
+      <c r="D458">
+        <v>14</v>
+      </c>
+      <c r="E458">
+        <v>14</v>
+      </c>
+      <c r="F458" t="s">
+        <v>34</v>
+      </c>
+      <c r="G458" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2317</v>
+      </c>
+      <c r="B459">
+        <v>2</v>
+      </c>
+      <c r="C459">
+        <v>2020</v>
+      </c>
+      <c r="D459">
+        <v>14</v>
+      </c>
+      <c r="E459">
+        <v>14</v>
+      </c>
+      <c r="F459" t="s">
+        <v>30</v>
+      </c>
+      <c r="G459" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2318</v>
+      </c>
+      <c r="B460">
+        <v>2</v>
+      </c>
+      <c r="C460">
+        <v>2020</v>
+      </c>
+      <c r="D460">
+        <v>14</v>
+      </c>
+      <c r="E460">
+        <v>14</v>
+      </c>
+      <c r="F460" t="s">
+        <v>188</v>
+      </c>
+      <c r="G460" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2319</v>
+      </c>
+      <c r="B461">
+        <v>2</v>
+      </c>
+      <c r="C461">
+        <v>2020</v>
+      </c>
+      <c r="D461">
+        <v>14</v>
+      </c>
+      <c r="E461">
+        <v>14</v>
+      </c>
+      <c r="F461" t="s">
+        <v>16</v>
+      </c>
+      <c r="G461" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2320</v>
+      </c>
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>2020</v>
+      </c>
+      <c r="D462">
+        <v>14</v>
+      </c>
+      <c r="E462">
+        <v>14</v>
+      </c>
+      <c r="F462" t="s">
+        <v>7</v>
+      </c>
+      <c r="G462" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2321</v>
+      </c>
+      <c r="B463">
+        <v>2</v>
+      </c>
+      <c r="C463">
+        <v>2020</v>
+      </c>
+      <c r="D463">
+        <v>14</v>
+      </c>
+      <c r="E463">
+        <v>14</v>
+      </c>
+      <c r="F463" t="s">
+        <v>25</v>
+      </c>
+      <c r="G463" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2322</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+      <c r="C464">
+        <v>2020</v>
+      </c>
+      <c r="D464">
+        <v>14</v>
+      </c>
+      <c r="E464">
+        <v>14</v>
+      </c>
+      <c r="F464" t="s">
+        <v>18</v>
+      </c>
+      <c r="G464" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2323</v>
+      </c>
+      <c r="B465">
+        <v>2</v>
+      </c>
+      <c r="C465">
+        <v>2020</v>
+      </c>
+      <c r="D465">
+        <v>14</v>
+      </c>
+      <c r="E465">
+        <v>14</v>
+      </c>
+      <c r="F465" t="s">
+        <v>9</v>
+      </c>
+      <c r="G465" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2324</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466">
+        <v>2020</v>
+      </c>
+      <c r="D466">
+        <v>15</v>
+      </c>
+      <c r="E466">
+        <v>15</v>
+      </c>
+      <c r="F466" t="s">
+        <v>188</v>
+      </c>
+      <c r="G466" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2325</v>
+      </c>
+      <c r="B467">
+        <v>2</v>
+      </c>
+      <c r="C467">
+        <v>2020</v>
+      </c>
+      <c r="D467">
+        <v>15</v>
+      </c>
+      <c r="E467">
+        <v>15</v>
+      </c>
+      <c r="F467" t="s">
+        <v>14</v>
+      </c>
+      <c r="G467" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2326</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>2020</v>
+      </c>
+      <c r="D468">
+        <v>15</v>
+      </c>
+      <c r="E468">
+        <v>15</v>
+      </c>
+      <c r="F468" t="s">
+        <v>38</v>
+      </c>
+      <c r="G468" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2327</v>
+      </c>
+      <c r="B469">
+        <v>2</v>
+      </c>
+      <c r="C469">
+        <v>2020</v>
+      </c>
+      <c r="D469">
+        <v>15</v>
+      </c>
+      <c r="E469">
+        <v>15</v>
+      </c>
+      <c r="F469" t="s">
+        <v>33</v>
+      </c>
+      <c r="G469" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2328</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470">
+        <v>2020</v>
+      </c>
+      <c r="D470">
+        <v>15</v>
+      </c>
+      <c r="E470">
+        <v>15</v>
+      </c>
+      <c r="F470" t="s">
+        <v>11</v>
+      </c>
+      <c r="G470" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>2329</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+      <c r="C471">
+        <v>2020</v>
+      </c>
+      <c r="D471">
+        <v>15</v>
+      </c>
+      <c r="E471">
+        <v>15</v>
+      </c>
+      <c r="F471" t="s">
+        <v>29</v>
+      </c>
+      <c r="G471" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>2330</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+      <c r="C472">
+        <v>2020</v>
+      </c>
+      <c r="D472">
+        <v>15</v>
+      </c>
+      <c r="E472">
+        <v>15</v>
+      </c>
+      <c r="F472" t="s">
+        <v>28</v>
+      </c>
+      <c r="G472" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>2331</v>
+      </c>
+      <c r="B473">
+        <v>2</v>
+      </c>
+      <c r="C473">
+        <v>2020</v>
+      </c>
+      <c r="D473">
+        <v>15</v>
+      </c>
+      <c r="E473">
+        <v>15</v>
+      </c>
+      <c r="F473" t="s">
+        <v>15</v>
+      </c>
+      <c r="G473" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>2332</v>
+      </c>
+      <c r="B474">
+        <v>2</v>
+      </c>
+      <c r="C474">
+        <v>2020</v>
+      </c>
+      <c r="D474">
+        <v>15</v>
+      </c>
+      <c r="E474">
+        <v>15</v>
+      </c>
+      <c r="F474" t="s">
+        <v>21</v>
+      </c>
+      <c r="G474" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>2333</v>
+      </c>
+      <c r="B475">
+        <v>2</v>
+      </c>
+      <c r="C475">
+        <v>2020</v>
+      </c>
+      <c r="D475">
+        <v>15</v>
+      </c>
+      <c r="E475">
+        <v>15</v>
+      </c>
+      <c r="F475" t="s">
+        <v>8</v>
+      </c>
+      <c r="G475" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>2334</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>2020</v>
+      </c>
+      <c r="D476">
+        <v>15</v>
+      </c>
+      <c r="E476">
+        <v>15</v>
+      </c>
+      <c r="F476" t="s">
+        <v>17</v>
+      </c>
+      <c r="G476" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>2335</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477">
+        <v>2020</v>
+      </c>
+      <c r="D477">
+        <v>15</v>
+      </c>
+      <c r="E477">
+        <v>15</v>
+      </c>
+      <c r="F477" t="s">
+        <v>13</v>
+      </c>
+      <c r="G477" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>2336</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+      <c r="C478">
+        <v>2020</v>
+      </c>
+      <c r="D478">
+        <v>15</v>
+      </c>
+      <c r="E478">
+        <v>15</v>
+      </c>
+      <c r="F478" t="s">
+        <v>27</v>
+      </c>
+      <c r="G478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>2337</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>2020</v>
+      </c>
+      <c r="D479">
+        <v>15</v>
+      </c>
+      <c r="E479">
+        <v>15</v>
+      </c>
+      <c r="F479" t="s">
+        <v>23</v>
+      </c>
+      <c r="G479" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2338</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+      <c r="C480">
+        <v>2020</v>
+      </c>
+      <c r="D480">
+        <v>15</v>
+      </c>
+      <c r="E480">
+        <v>15</v>
+      </c>
+      <c r="F480" t="s">
+        <v>32</v>
+      </c>
+      <c r="G480" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>2339</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481">
+        <v>2020</v>
+      </c>
+      <c r="D481">
+        <v>15</v>
+      </c>
+      <c r="E481">
+        <v>15</v>
+      </c>
+      <c r="F481" t="s">
+        <v>12</v>
+      </c>
+      <c r="G481" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2340</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482">
+        <v>2020</v>
+      </c>
+      <c r="D482">
+        <v>16</v>
+      </c>
+      <c r="E482">
+        <v>16</v>
+      </c>
+      <c r="F482" t="s">
+        <v>23</v>
+      </c>
+      <c r="G482" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>2341</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483">
+        <v>2020</v>
+      </c>
+      <c r="D483">
+        <v>16</v>
+      </c>
+      <c r="E483">
+        <v>16</v>
+      </c>
+      <c r="F483" t="s">
+        <v>36</v>
+      </c>
+      <c r="G483" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>2342</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>2020</v>
+      </c>
+      <c r="D484">
+        <v>16</v>
+      </c>
+      <c r="E484">
+        <v>16</v>
+      </c>
+      <c r="F484" t="s">
+        <v>188</v>
+      </c>
+      <c r="G484" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>2343</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+      <c r="C485">
+        <v>2020</v>
+      </c>
+      <c r="D485">
+        <v>16</v>
+      </c>
+      <c r="E485">
+        <v>16</v>
+      </c>
+      <c r="F485" t="s">
+        <v>25</v>
+      </c>
+      <c r="G485" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>2344</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486">
+        <v>2020</v>
+      </c>
+      <c r="D486">
+        <v>16</v>
+      </c>
+      <c r="E486">
+        <v>16</v>
+      </c>
+      <c r="F486" t="s">
+        <v>35</v>
+      </c>
+      <c r="G486" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>2345</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>2020</v>
+      </c>
+      <c r="D487">
+        <v>16</v>
+      </c>
+      <c r="E487">
+        <v>16</v>
+      </c>
+      <c r="F487" t="s">
+        <v>27</v>
+      </c>
+      <c r="G487" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2346</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+      <c r="C488">
+        <v>2020</v>
+      </c>
+      <c r="D488">
+        <v>16</v>
+      </c>
+      <c r="E488">
+        <v>16</v>
+      </c>
+      <c r="F488" t="s">
+        <v>28</v>
+      </c>
+      <c r="G488" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2347</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+      <c r="C489">
+        <v>2020</v>
+      </c>
+      <c r="D489">
+        <v>16</v>
+      </c>
+      <c r="E489">
+        <v>16</v>
+      </c>
+      <c r="F489" t="s">
+        <v>26</v>
+      </c>
+      <c r="G489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>2348</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
+      </c>
+      <c r="C490">
+        <v>2020</v>
+      </c>
+      <c r="D490">
+        <v>16</v>
+      </c>
+      <c r="E490">
+        <v>16</v>
+      </c>
+      <c r="F490" t="s">
+        <v>20</v>
+      </c>
+      <c r="G490" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>2349</v>
+      </c>
+      <c r="B491">
+        <v>2</v>
+      </c>
+      <c r="C491">
+        <v>2020</v>
+      </c>
+      <c r="D491">
+        <v>16</v>
+      </c>
+      <c r="E491">
+        <v>16</v>
+      </c>
+      <c r="F491" t="s">
+        <v>22</v>
+      </c>
+      <c r="G491" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>2350</v>
+      </c>
+      <c r="B492">
+        <v>2</v>
+      </c>
+      <c r="C492">
+        <v>2020</v>
+      </c>
+      <c r="D492">
+        <v>16</v>
+      </c>
+      <c r="E492">
+        <v>16</v>
+      </c>
+      <c r="F492" t="s">
+        <v>17</v>
+      </c>
+      <c r="G492" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>2351</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+      <c r="C493">
+        <v>2020</v>
+      </c>
+      <c r="D493">
+        <v>16</v>
+      </c>
+      <c r="E493">
+        <v>16</v>
+      </c>
+      <c r="F493" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>2352</v>
+      </c>
+      <c r="B494">
+        <v>2</v>
+      </c>
+      <c r="C494">
+        <v>2020</v>
+      </c>
+      <c r="D494">
+        <v>16</v>
+      </c>
+      <c r="E494">
+        <v>16</v>
+      </c>
+      <c r="F494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G494" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2353</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495">
+        <v>2020</v>
+      </c>
+      <c r="D495">
+        <v>16</v>
+      </c>
+      <c r="E495">
+        <v>16</v>
+      </c>
+      <c r="F495" t="s">
+        <v>32</v>
+      </c>
+      <c r="G495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>2354</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>2020</v>
+      </c>
+      <c r="D496">
+        <v>16</v>
+      </c>
+      <c r="E496">
+        <v>16</v>
+      </c>
+      <c r="F496" t="s">
+        <v>33</v>
+      </c>
+      <c r="G496" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2355</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497">
+        <v>2020</v>
+      </c>
+      <c r="D497">
+        <v>16</v>
+      </c>
+      <c r="E497">
+        <v>16</v>
+      </c>
+      <c r="F497" t="s">
+        <v>19</v>
+      </c>
+      <c r="G497" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2356</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498">
+        <v>2020</v>
+      </c>
+      <c r="D498">
+        <v>17</v>
+      </c>
+      <c r="E498">
+        <v>17</v>
+      </c>
+      <c r="F498" t="s">
+        <v>19</v>
+      </c>
+      <c r="G498" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2357</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499">
+        <v>2020</v>
+      </c>
+      <c r="D499">
+        <v>17</v>
+      </c>
+      <c r="E499">
+        <v>17</v>
+      </c>
+      <c r="F499" t="s">
+        <v>9</v>
+      </c>
+      <c r="G499" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>2358</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>2020</v>
+      </c>
+      <c r="D500">
+        <v>17</v>
+      </c>
+      <c r="E500">
+        <v>17</v>
+      </c>
+      <c r="F500" t="s">
+        <v>24</v>
+      </c>
+      <c r="G500" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2359</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+      <c r="C501">
+        <v>2020</v>
+      </c>
+      <c r="D501">
+        <v>17</v>
+      </c>
+      <c r="E501">
+        <v>17</v>
+      </c>
+      <c r="F501" t="s">
+        <v>21</v>
+      </c>
+      <c r="G501" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>2360</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+      <c r="C502">
+        <v>2020</v>
+      </c>
+      <c r="D502">
+        <v>17</v>
+      </c>
+      <c r="E502">
+        <v>17</v>
+      </c>
+      <c r="F502" t="s">
+        <v>7</v>
+      </c>
+      <c r="G502" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>2361</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503">
+        <v>2020</v>
+      </c>
+      <c r="D503">
+        <v>17</v>
+      </c>
+      <c r="E503">
+        <v>17</v>
+      </c>
+      <c r="F503" t="s">
+        <v>26</v>
+      </c>
+      <c r="G503" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>2362</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504">
+        <v>2020</v>
+      </c>
+      <c r="D504">
+        <v>17</v>
+      </c>
+      <c r="E504">
+        <v>17</v>
+      </c>
+      <c r="F504" t="s">
+        <v>35</v>
+      </c>
+      <c r="G504" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>2363</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>2020</v>
+      </c>
+      <c r="D505">
+        <v>17</v>
+      </c>
+      <c r="E505">
+        <v>17</v>
+      </c>
+      <c r="F505" t="s">
+        <v>12</v>
+      </c>
+      <c r="G505" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>2364</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506">
+        <v>2020</v>
+      </c>
+      <c r="D506">
+        <v>17</v>
+      </c>
+      <c r="E506">
+        <v>17</v>
+      </c>
+      <c r="F506" t="s">
+        <v>18</v>
+      </c>
+      <c r="G506" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>2365</v>
+      </c>
+      <c r="B507">
+        <v>2</v>
+      </c>
+      <c r="C507">
+        <v>2020</v>
+      </c>
+      <c r="D507">
+        <v>17</v>
+      </c>
+      <c r="E507">
+        <v>17</v>
+      </c>
+      <c r="F507" t="s">
+        <v>34</v>
+      </c>
+      <c r="G507" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>2366</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508">
+        <v>2020</v>
+      </c>
+      <c r="D508">
+        <v>17</v>
+      </c>
+      <c r="E508">
+        <v>17</v>
+      </c>
+      <c r="F508" t="s">
+        <v>20</v>
+      </c>
+      <c r="G508" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>2367</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+      <c r="C509">
+        <v>2020</v>
+      </c>
+      <c r="D509">
+        <v>17</v>
+      </c>
+      <c r="E509">
+        <v>17</v>
+      </c>
+      <c r="F509" t="s">
+        <v>11</v>
+      </c>
+      <c r="G509" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>2368</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510">
+        <v>2020</v>
+      </c>
+      <c r="D510">
+        <v>17</v>
+      </c>
+      <c r="E510">
+        <v>17</v>
+      </c>
+      <c r="F510" t="s">
+        <v>31</v>
+      </c>
+      <c r="G510" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>2369</v>
+      </c>
+      <c r="B511">
+        <v>2</v>
+      </c>
+      <c r="C511">
+        <v>2020</v>
+      </c>
+      <c r="D511">
+        <v>17</v>
+      </c>
+      <c r="E511">
+        <v>17</v>
+      </c>
+      <c r="F511" t="s">
+        <v>29</v>
+      </c>
+      <c r="G511" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>2370</v>
+      </c>
+      <c r="B512">
+        <v>2</v>
+      </c>
+      <c r="C512">
+        <v>2020</v>
+      </c>
+      <c r="D512">
+        <v>17</v>
+      </c>
+      <c r="E512">
+        <v>17</v>
+      </c>
+      <c r="F512" t="s">
+        <v>38</v>
+      </c>
+      <c r="G512" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>2371</v>
+      </c>
+      <c r="B513">
+        <v>2</v>
+      </c>
+      <c r="C513">
+        <v>2020</v>
+      </c>
+      <c r="D513">
+        <v>17</v>
+      </c>
+      <c r="E513">
+        <v>17</v>
+      </c>
+      <c r="F513" t="s">
+        <v>16</v>
+      </c>
+      <c r="G513" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/db_sports.xlsx
+++ b/data-raw/db_sports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\sports-predict\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21504C3B-6D4C-4E17-ACF1-D3427A32074A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C801-885F-426D-A332-086FA1385ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="13485" windowHeight="11520" tabRatio="730" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
+    <workbookView xWindow="2295" yWindow="195" windowWidth="13485" windowHeight="14775" tabRatio="730" activeTab="1" xr2:uid="{F299F711-D4F9-455C-93CD-33799F69C1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_tm" sheetId="2" r:id="rId1"/>
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3ECA7-9A25-40A8-9453-2E882EECF8B1}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E0B7D-391B-47A1-BFA0-908005119D46}">
   <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:A513"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258:G513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7789,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G259" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7812,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G260" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7835,10 +7835,10 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G261" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,10 +7858,10 @@
         <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7881,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G263" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7904,10 +7904,10 @@
         <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G265" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7950,10 +7950,10 @@
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G266" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7973,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G267" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -8341,10 +8341,10 @@
         <v>2</v>
       </c>
       <c r="F283" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G283" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -8364,10 +8364,10 @@
         <v>2</v>
       </c>
       <c r="F284" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G284" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -8985,10 +8985,10 @@
         <v>4</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G311" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -9008,10 +9008,10 @@
         <v>4</v>
       </c>
       <c r="F312" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -9031,10 +9031,10 @@
         <v>4</v>
       </c>
       <c r="F313" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G313" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -9054,10 +9054,10 @@
         <v>4</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G314" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -9077,10 +9077,10 @@
         <v>4</v>
       </c>
       <c r="F315" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G315" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -9100,10 +9100,10 @@
         <v>4</v>
       </c>
       <c r="F316" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G316" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -9123,10 +9123,10 @@
         <v>4</v>
       </c>
       <c r="F317" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="G317" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -9146,10 +9146,10 @@
         <v>4</v>
       </c>
       <c r="F318" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="G318" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -9192,10 +9192,10 @@
         <v>4</v>
       </c>
       <c r="F320" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -9209,16 +9209,16 @@
         <v>2020</v>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E321">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G321" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -9238,10 +9238,10 @@
         <v>5</v>
       </c>
       <c r="F322" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G322" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -9261,10 +9261,10 @@
         <v>5</v>
       </c>
       <c r="F323" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -9284,10 +9284,10 @@
         <v>5</v>
       </c>
       <c r="F324" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G324" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -9307,10 +9307,10 @@
         <v>5</v>
       </c>
       <c r="F325" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G325" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -9330,10 +9330,10 @@
         <v>5</v>
       </c>
       <c r="F326" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G326" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -9353,10 +9353,10 @@
         <v>5</v>
       </c>
       <c r="F327" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G327" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="F328" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -9399,10 +9399,10 @@
         <v>5</v>
       </c>
       <c r="F329" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G329" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -9422,10 +9422,10 @@
         <v>5</v>
       </c>
       <c r="F330" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -9445,10 +9445,10 @@
         <v>5</v>
       </c>
       <c r="F331" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G331" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -9468,10 +9468,10 @@
         <v>5</v>
       </c>
       <c r="F332" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -9491,10 +9491,10 @@
         <v>5</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G333" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -9514,10 +9514,10 @@
         <v>5</v>
       </c>
       <c r="F334" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G334" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -9531,16 +9531,16 @@
         <v>2020</v>
       </c>
       <c r="D335">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E335">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F335" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G335" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -9554,16 +9554,16 @@
         <v>2020</v>
       </c>
       <c r="D336">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E336">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F336" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G336" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9583,10 +9583,10 @@
         <v>6</v>
       </c>
       <c r="F337" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G337" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -9606,10 +9606,10 @@
         <v>6</v>
       </c>
       <c r="F338" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G338" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -9629,10 +9629,10 @@
         <v>6</v>
       </c>
       <c r="F339" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G339" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9652,10 +9652,10 @@
         <v>6</v>
       </c>
       <c r="F340" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G340" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -9675,10 +9675,10 @@
         <v>6</v>
       </c>
       <c r="F341" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G341" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9698,10 +9698,10 @@
         <v>6</v>
       </c>
       <c r="F342" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G342" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -9721,10 +9721,10 @@
         <v>6</v>
       </c>
       <c r="F343" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G343" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -9744,10 +9744,10 @@
         <v>6</v>
       </c>
       <c r="F344" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G344" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9767,10 +9767,10 @@
         <v>6</v>
       </c>
       <c r="F345" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G345" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -9790,10 +9790,10 @@
         <v>6</v>
       </c>
       <c r="F346" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G346" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9813,10 +9813,10 @@
         <v>6</v>
       </c>
       <c r="F347" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G347" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -9836,10 +9836,10 @@
         <v>6</v>
       </c>
       <c r="F348" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -9853,16 +9853,16 @@
         <v>2020</v>
       </c>
       <c r="D349">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E349">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F349" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G349" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -9876,16 +9876,16 @@
         <v>2020</v>
       </c>
       <c r="D350">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E350">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F350" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G350" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9905,10 +9905,10 @@
         <v>7</v>
       </c>
       <c r="F351" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G351" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -9928,10 +9928,10 @@
         <v>7</v>
       </c>
       <c r="F352" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -9951,10 +9951,10 @@
         <v>7</v>
       </c>
       <c r="F353" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G353" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9974,10 +9974,10 @@
         <v>7</v>
       </c>
       <c r="F354" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G354" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -9997,10 +9997,10 @@
         <v>7</v>
       </c>
       <c r="F355" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G355" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -10020,10 +10020,10 @@
         <v>7</v>
       </c>
       <c r="F356" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G356" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -10043,10 +10043,10 @@
         <v>7</v>
       </c>
       <c r="F357" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G357" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -10066,10 +10066,10 @@
         <v>7</v>
       </c>
       <c r="F358" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G358" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -10089,10 +10089,10 @@
         <v>7</v>
       </c>
       <c r="F359" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G359" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -10112,10 +10112,10 @@
         <v>7</v>
       </c>
       <c r="F360" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G360" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -10135,10 +10135,10 @@
         <v>7</v>
       </c>
       <c r="F361" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G361" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -10158,10 +10158,10 @@
         <v>7</v>
       </c>
       <c r="F362" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G362" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -10175,16 +10175,16 @@
         <v>2020</v>
       </c>
       <c r="D363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F363" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="G363" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -10198,16 +10198,16 @@
         <v>2020</v>
       </c>
       <c r="D364">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E364">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F364" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G364" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -10227,10 +10227,10 @@
         <v>8</v>
       </c>
       <c r="F365" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G365" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -10250,10 +10250,10 @@
         <v>8</v>
       </c>
       <c r="F366" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G366" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10273,10 +10273,10 @@
         <v>8</v>
       </c>
       <c r="F367" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G367" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -10296,10 +10296,10 @@
         <v>8</v>
       </c>
       <c r="F368" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G368" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -10319,10 +10319,10 @@
         <v>8</v>
       </c>
       <c r="F369" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G369" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -10342,10 +10342,10 @@
         <v>8</v>
       </c>
       <c r="F370" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G370" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -10365,10 +10365,10 @@
         <v>8</v>
       </c>
       <c r="F371" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G371" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -10388,10 +10388,10 @@
         <v>8</v>
       </c>
       <c r="F372" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G372" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -10411,10 +10411,10 @@
         <v>8</v>
       </c>
       <c r="F373" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G373" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -10434,10 +10434,10 @@
         <v>8</v>
       </c>
       <c r="F374" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G374" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -10457,10 +10457,10 @@
         <v>8</v>
       </c>
       <c r="F375" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G375" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -10480,10 +10480,10 @@
         <v>8</v>
       </c>
       <c r="F376" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G376" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -10497,16 +10497,16 @@
         <v>2020</v>
       </c>
       <c r="D377">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E377">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G377" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -10526,10 +10526,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G378" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -10549,10 +10549,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G379" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -10572,10 +10572,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G380" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -10595,10 +10595,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G381" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -10618,10 +10618,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -10641,10 +10641,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G383" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -10664,10 +10664,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G384" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -10687,10 +10687,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G385" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -10710,10 +10710,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G386" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -10733,10 +10733,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G387" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -10756,10 +10756,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G388" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10779,10 +10779,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G389" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -10802,10 +10802,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G390" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -10819,16 +10819,16 @@
         <v>2020</v>
       </c>
       <c r="D391">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E391">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G391" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -10848,10 +10848,10 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G392" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -10871,10 +10871,10 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G393" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -10894,10 +10894,10 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G394" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -10917,10 +10917,10 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G395" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -10940,10 +10940,10 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G396" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -10963,10 +10963,10 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G397" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -10986,10 +10986,10 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G398" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -11055,10 +11055,10 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G401" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -11078,10 +11078,10 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G402" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -11101,10 +11101,10 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G403" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -11124,10 +11124,10 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G404" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -11141,16 +11141,16 @@
         <v>2020</v>
       </c>
       <c r="D405">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E405">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F405" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G405" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -11170,10 +11170,10 @@
         <v>11</v>
       </c>
       <c r="F406" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G406" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -11193,10 +11193,10 @@
         <v>11</v>
       </c>
       <c r="F407" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G407" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -11216,10 +11216,10 @@
         <v>11</v>
       </c>
       <c r="F408" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G408" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -11239,10 +11239,10 @@
         <v>11</v>
       </c>
       <c r="F409" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -11262,10 +11262,10 @@
         <v>11</v>
       </c>
       <c r="F410" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G410" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -11285,10 +11285,10 @@
         <v>11</v>
       </c>
       <c r="F411" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G411" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -11308,10 +11308,10 @@
         <v>11</v>
       </c>
       <c r="F412" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G412" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -11331,10 +11331,10 @@
         <v>11</v>
       </c>
       <c r="F413" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G413" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -11354,10 +11354,10 @@
         <v>11</v>
       </c>
       <c r="F414" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G414" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -11377,10 +11377,10 @@
         <v>11</v>
       </c>
       <c r="F415" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G415" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
